--- a/Formal_Chamber.xlsx
+++ b/Formal_Chamber.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="1215" windowWidth="2235" windowHeight="5310" tabRatio="728" activeTab="3"/>
+    <workbookView xWindow="8565" yWindow="1245" windowWidth="2235" windowHeight="5280" tabRatio="728" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chamber-Console" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="04-01" sheetId="32" r:id="rId5"/>
     <sheet name="04-02" sheetId="33" r:id="rId6"/>
     <sheet name="04-03" sheetId="34" r:id="rId7"/>
-    <sheet name="Mistake" sheetId="18" r:id="rId8"/>
-    <sheet name="Linux-VIM" sheetId="20" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId8"/>
+    <sheet name="Mistake" sheetId="18" r:id="rId9"/>
+    <sheet name="Linux-VIM" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="1245">
   <si>
     <t>Vodka</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1440,9 +1441,6 @@
   </si>
   <si>
     <t xml:space="preserve">      Port       OutUcastPkts OutMcastPkts OutBcastPkts  OutOctets</t>
-  </si>
-  <si>
-    <t>Router#show int counters GE1/1</t>
   </si>
   <si>
     <t>Router#show fiber optical</t>
@@ -4091,6 +4089,14 @@
   </si>
   <si>
     <t>Alarm: 温度有些异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#show int counters GE1/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5341,6 +5347,44 @@
         <a:xfrm>
           <a:off x="685800" y="12858750"/>
           <a:ext cx="5000000" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>979839</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>84772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="21602700"/>
+          <a:ext cx="9895239" cy="7628572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7012,6 +7056,87 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="276226"/>
+          <a:ext cx="9411120" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495720</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6343650"/>
+          <a:ext cx="9411120" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -7340,7 +7465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
@@ -7522,24 +7647,24 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="68" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H16" s="119" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>353</v>
@@ -7548,21 +7673,21 @@
         <v>353</v>
       </c>
       <c r="G17" s="118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D18" s="24">
         <v>2027</v>
@@ -7571,21 +7696,21 @@
         <v>25</v>
       </c>
       <c r="G18" s="118" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D19" s="24">
         <v>2026</v>
@@ -7596,10 +7721,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D20" s="116">
         <v>2052</v>
@@ -7632,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="163" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H27" s="157"/>
     </row>
@@ -7645,7 +7770,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="166" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H28" s="167"/>
     </row>
@@ -7706,7 +7831,7 @@
         <v>2.1</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>357</v>
@@ -7876,7 +8001,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="B46" s="27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C46" s="73">
         <v>2028</v>
@@ -7887,10 +8012,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47" s="177" t="s">
         <v>422</v>
-      </c>
-      <c r="C47" s="177" t="s">
-        <v>423</v>
       </c>
       <c r="D47" s="178"/>
     </row>
@@ -7986,12 +8111,12 @@
     <row r="58" spans="1:12">
       <c r="B58" s="40"/>
       <c r="C58" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H58" s="80"/>
       <c r="I58" s="10"/>
@@ -8001,7 +8126,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="B59" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C59" s="72">
         <v>2046</v>
@@ -8010,7 +8135,7 @@
         <v>46</v>
       </c>
       <c r="E59" s="72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F59" s="27">
         <v>2037</v>
@@ -8054,7 +8179,7 @@
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -8106,7 +8231,7 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8121,7 +8246,7 @@
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" thickBot="1">
@@ -8136,7 +8261,7 @@
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" thickBot="1">
@@ -8147,25 +8272,25 @@
     </row>
     <row r="71" spans="1:6">
       <c r="B71" s="120" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C71" s="121" t="s">
+        <v>939</v>
+      </c>
+      <c r="D71" s="121" t="s">
         <v>940</v>
-      </c>
-      <c r="D71" s="121" t="s">
-        <v>941</v>
       </c>
       <c r="E71" s="37"/>
     </row>
     <row r="72" spans="1:6">
       <c r="B72" s="123" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C72" s="24">
         <v>2041</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E72" s="107">
         <v>49</v>
@@ -8173,22 +8298,22 @@
     </row>
     <row r="73" spans="1:6" ht="14.25" thickBot="1">
       <c r="A73" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B73" s="138" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C73" s="136">
         <v>2042</v>
       </c>
       <c r="D73" s="136" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E73" s="108">
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8297,7 +8422,7 @@
         <v>31</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" thickBot="1"/>
@@ -8306,31 +8431,31 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B85" s="120" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C85" s="121" t="s">
+        <v>946</v>
+      </c>
+      <c r="D85" s="121" t="s">
         <v>947</v>
       </c>
-      <c r="D85" s="121" t="s">
+      <c r="E85" s="122" t="s">
         <v>948</v>
-      </c>
-      <c r="E85" s="122" t="s">
-        <v>949</v>
       </c>
       <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:9">
       <c r="B86" s="123" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C86" s="24">
         <v>2014</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E86" s="124" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>330</v>
@@ -8338,19 +8463,19 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B87" s="135" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C87" s="24">
         <v>2013</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E87" s="124" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>329</v>
@@ -8358,19 +8483,19 @@
     </row>
     <row r="88" spans="1:9" ht="14.25" thickBot="1">
       <c r="B88" s="132" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C88" s="136">
         <v>2012</v>
       </c>
       <c r="D88" s="136" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E88" s="137" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -8406,7 +8531,7 @@
     </row>
     <row r="91" spans="1:9" ht="14.25">
       <c r="C91" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I91" s="42" t="s">
         <v>336</v>
@@ -8451,6 +8576,79 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="C47:D47"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8769,8 +8967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8789,15 +8987,15 @@
     <row r="1" spans="1:9">
       <c r="A1" s="19"/>
       <c r="B1" s="79" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C1" s="114"/>
       <c r="D1" s="79" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E1" s="112"/>
       <c r="F1" s="79" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>77</v>
@@ -8808,11 +9006,11 @@
         <v>385</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -8826,11 +9024,11 @@
         <v>386</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E3" s="80"/>
       <c r="F3" s="80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8838,11 +9036,11 @@
         <v>387</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E4" s="80"/>
       <c r="F4" s="80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G4" t="s">
         <v>79</v>
@@ -8856,11 +9054,11 @@
         <v>388</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="80" t="s">
-        <v>420</v>
+        <v>1244</v>
       </c>
       <c r="I5" t="s">
         <v>80</v>
@@ -8871,11 +9069,11 @@
         <v>389</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G6" t="s">
         <v>80</v>
@@ -8886,11 +9084,11 @@
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="75" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E7" s="80"/>
       <c r="F7" s="80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
@@ -8901,11 +9099,11 @@
         <v>397</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E8" s="115"/>
       <c r="F8" s="80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G8" t="s">
         <v>83</v>
@@ -8916,14 +9114,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="111" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D9" s="165" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E9" s="113"/>
       <c r="F9" s="80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
@@ -8931,13 +9129,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="77" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G10" t="s">
         <v>84</v>
@@ -8948,13 +9146,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="75" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I11" t="s">
         <v>84</v>
@@ -8962,13 +9160,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="75" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G12" t="s">
         <v>85</v>
@@ -8979,13 +9177,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I13" t="s">
         <v>86</v>
@@ -8993,13 +9191,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="75" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -9010,13 +9208,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="76" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -9024,10 +9222,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="D16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G16" t="s">
         <v>89</v>
@@ -9038,10 +9236,10 @@
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="33" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I17" t="s">
         <v>91</v>
@@ -9049,7 +9247,7 @@
     </row>
     <row r="18" spans="4:9">
       <c r="F18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G18" t="s">
         <v>92</v>
@@ -9060,7 +9258,7 @@
     </row>
     <row r="19" spans="4:9">
       <c r="F19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I19" t="s">
         <v>94</v>
@@ -9068,7 +9266,7 @@
     </row>
     <row r="20" spans="4:9">
       <c r="F20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G20" t="s">
         <v>95</v>
@@ -9079,7 +9277,7 @@
     </row>
     <row r="21" spans="4:9">
       <c r="F21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I21" t="s">
         <v>97</v>
@@ -9087,7 +9285,7 @@
     </row>
     <row r="22" spans="4:9">
       <c r="F22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -10329,8 +10527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10355,29 +10553,29 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="81"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="86" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E6" s="87"/>
     </row>
@@ -10389,15 +10587,15 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E8" s="34"/>
       <c r="G8" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -10405,7 +10603,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -10418,20 +10616,20 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="83" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E10" s="36"/>
       <c r="M10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="M11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -10439,35 +10637,35 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="M13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="M14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="M15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="M16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" thickBot="1">
       <c r="M17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10475,17 +10673,17 @@
       <c r="B18" s="93"/>
       <c r="C18" s="93"/>
       <c r="D18" s="185" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E18" s="185"/>
       <c r="F18" s="185"/>
       <c r="G18" s="185" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H18" s="185"/>
       <c r="I18" s="186"/>
       <c r="M18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10493,36 +10691,36 @@
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>565</v>
-      </c>
       <c r="G19" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="I19" s="95" t="s">
         <v>564</v>
       </c>
-      <c r="I19" s="95" t="s">
-        <v>565</v>
-      </c>
       <c r="M19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="180" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B20" s="182" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D20" s="90">
         <v>25919921037</v>
@@ -10543,14 +10741,14 @@
         <v>5</v>
       </c>
       <c r="M20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="180"/>
       <c r="B21" s="182"/>
       <c r="C21" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D21" s="29">
         <v>35183485511</v>
@@ -10571,18 +10769,18 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="180" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" s="182" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D22" s="90">
         <v>14408700665</v>
@@ -10603,14 +10801,14 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="180"/>
       <c r="B23" s="182"/>
       <c r="C23" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D23" s="91">
         <v>22170980323</v>
@@ -10631,18 +10829,18 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="180" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24" s="183" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D24" s="90">
         <v>11101534907</v>
@@ -10663,14 +10861,14 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="180"/>
       <c r="B25" s="183"/>
       <c r="C25" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D25" s="91">
         <v>16936635692</v>
@@ -10691,18 +10889,18 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="180" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B26" s="183" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D26" s="90">
         <v>17575135580</v>
@@ -10723,14 +10921,14 @@
         <v>3</v>
       </c>
       <c r="M26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" thickBot="1">
       <c r="A27" s="181"/>
       <c r="B27" s="184"/>
       <c r="C27" s="98" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D27" s="99">
         <v>27140713946</v>
@@ -10751,17 +10949,17 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="M28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="M29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10769,18 +10967,18 @@
         <v>3</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25">
       <c r="B31" s="89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25">
@@ -10790,12 +10988,12 @@
     </row>
     <row r="33" spans="2:13" ht="14.25" thickBot="1">
       <c r="M33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="92" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C34" s="93"/>
       <c r="D34" s="93"/>
@@ -10803,12 +11001,12 @@
       <c r="F34" s="93"/>
       <c r="G34" s="101"/>
       <c r="M34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -10816,12 +11014,12 @@
       <c r="F35" s="33"/>
       <c r="G35" s="102"/>
       <c r="M35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="94" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -10829,12 +11027,12 @@
       <c r="F36" s="33"/>
       <c r="G36" s="102"/>
       <c r="M36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="94" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -10842,12 +11040,12 @@
       <c r="F37" s="33"/>
       <c r="G37" s="102"/>
       <c r="M37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -10855,12 +11053,12 @@
       <c r="F38" s="33"/>
       <c r="G38" s="102"/>
       <c r="M38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -10868,12 +11066,12 @@
       <c r="F39" s="33"/>
       <c r="G39" s="102"/>
       <c r="M39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -10881,12 +11079,12 @@
       <c r="F40" s="33"/>
       <c r="G40" s="102"/>
       <c r="M40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -10894,12 +11092,12 @@
       <c r="F41" s="33"/>
       <c r="G41" s="102"/>
       <c r="M41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="94" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -10907,12 +11105,12 @@
       <c r="F42" s="33"/>
       <c r="G42" s="102"/>
       <c r="M42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="94" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -10920,12 +11118,12 @@
       <c r="F43" s="33"/>
       <c r="G43" s="102"/>
       <c r="M43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="94" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -10933,12 +11131,12 @@
       <c r="F44" s="33"/>
       <c r="G44" s="102"/>
       <c r="M44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="94" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -10946,12 +11144,12 @@
       <c r="F45" s="33"/>
       <c r="G45" s="102"/>
       <c r="M45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="94" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -10959,12 +11157,12 @@
       <c r="F46" s="33"/>
       <c r="G46" s="102"/>
       <c r="M46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -10972,12 +11170,12 @@
       <c r="F47" s="33"/>
       <c r="G47" s="102"/>
       <c r="M47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="94" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -10985,12 +11183,12 @@
       <c r="F48" s="33"/>
       <c r="G48" s="102"/>
       <c r="M48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="B49" s="94" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -10998,12 +11196,12 @@
       <c r="F49" s="33"/>
       <c r="G49" s="102"/>
       <c r="M49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="B50" s="94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -11011,12 +11209,12 @@
       <c r="F50" s="33"/>
       <c r="G50" s="102"/>
       <c r="M50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="B51" s="94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
@@ -11024,12 +11222,12 @@
       <c r="F51" s="33"/>
       <c r="G51" s="102"/>
       <c r="M51" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -11037,12 +11235,12 @@
       <c r="F52" s="33"/>
       <c r="G52" s="102"/>
       <c r="M52" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="B53" s="94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
@@ -11050,12 +11248,12 @@
       <c r="F53" s="33"/>
       <c r="G53" s="102"/>
       <c r="M53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.25" thickBot="1">
       <c r="B54" s="103" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C54" s="104"/>
       <c r="D54" s="104"/>
@@ -11063,12 +11261,12 @@
       <c r="F54" s="104"/>
       <c r="G54" s="105"/>
       <c r="M54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="M55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -11076,7 +11274,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="88" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -11084,10 +11282,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -11095,361 +11293,361 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="B59" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="B60" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="B61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="B62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="B63" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M63" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="B64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="2:13">
       <c r="B65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M65" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="2:13">
       <c r="B66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="2:13">
       <c r="B67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M67" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="2:13">
       <c r="B68" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M68" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M69" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="2:13">
       <c r="B70" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M72" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="2:13">
       <c r="B74" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="2:13">
       <c r="B76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="2:13">
       <c r="B77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="2:13">
       <c r="B79" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M80" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="2:13">
       <c r="B81" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M81" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M82" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84" spans="2:13">
       <c r="B84" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M85" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M86" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="2:13">
       <c r="B87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M87" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="2:13">
       <c r="B88" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M88" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="2:13">
       <c r="B89" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M89" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="2:13">
       <c r="B90" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="2:13">
       <c r="B91" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="2:13">
       <c r="B92" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="2:13">
       <c r="B93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M94" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="2:13">
       <c r="B96" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M96" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="B97" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M97" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="B98" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M98" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="B99" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="B100" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M100" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="B101" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M101" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="B102" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M102" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="B103" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -11462,7 +11660,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -11470,7 +11668,7 @@
         <v>6.1</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -11485,7 +11683,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="B153" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -11495,7 +11693,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="B155" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -11523,7 +11721,7 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="2:2">
@@ -11533,7 +11731,7 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="2:2">
@@ -11548,87 +11746,87 @@
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -11654,8 +11852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11677,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11686,12 +11884,12 @@
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
       <c r="F2" s="109" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="F3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11699,15 +11897,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="F6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11715,10 +11913,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11726,97 +11924,97 @@
         <v>2.1</v>
       </c>
       <c r="B10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="24"/>
       <c r="B13" s="68" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C15" s="24">
         <v>2027</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C16" s="24">
         <v>2026</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C17" s="116">
         <v>2052</v>
@@ -11830,43 +12028,43 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="118" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="118" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="F22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11874,22 +12072,22 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="F24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="F26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11897,220 +12095,220 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D27" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D30" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D31" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D36" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D40" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D41" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D42" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D43" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D44" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D45" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F46" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="D48" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F48" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -12118,32 +12316,32 @@
         <v>2.4</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D50" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F50" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="D51" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -12151,33 +12349,33 @@
         <v>2.5</v>
       </c>
       <c r="B52" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D52" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="B53" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D53" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="D54" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F54" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -12185,45 +12383,45 @@
         <v>2.6</v>
       </c>
       <c r="B55" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D55" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F55" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="B56" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D56" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F56" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F58" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="F59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -12231,87 +12429,87 @@
         <v>2.7</v>
       </c>
       <c r="B60" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F62" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F63" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="B65" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F65" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="B66" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F66" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="B67" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="B68" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F68" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="B69" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F69" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F70" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="F71" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -12319,101 +12517,101 @@
         <v>4</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C72" s="68" t="s">
+        <v>939</v>
+      </c>
+      <c r="D72" s="68" t="s">
         <v>940</v>
       </c>
-      <c r="D72" s="68" t="s">
-        <v>941</v>
-      </c>
       <c r="F72" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="B73" s="24" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C73" s="24">
         <v>2041</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F73" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C74" s="24">
         <v>2042</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F74" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="F75" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="F77" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="F78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="F80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="F81" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="F84" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="F85" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="F86" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="68" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C87" s="68" t="s">
+        <v>946</v>
+      </c>
+      <c r="D87" s="68" t="s">
         <v>947</v>
       </c>
-      <c r="D87" s="68" t="s">
+      <c r="E87" s="68" t="s">
         <v>948</v>
       </c>
-      <c r="E87" s="68" t="s">
-        <v>949</v>
-      </c>
       <c r="F87" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -12421,57 +12619,57 @@
         <v>5</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F88" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="B89" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F89" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="B90" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F90" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="F91" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="F92" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -12479,31 +12677,31 @@
         <v>6</v>
       </c>
       <c r="B93" s="117" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F93" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="B94" s="142" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F94" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="B95" s="68" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C95" s="68" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="B96" s="24" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C96" s="24">
         <v>2013</v>
@@ -12511,7 +12709,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="118" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C97" s="24">
         <v>2016</v>
@@ -12519,18 +12717,18 @@
     </row>
     <row r="98" spans="1:11">
       <c r="B98" s="24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C98" s="24">
         <v>2002</v>
       </c>
       <c r="F98" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="F102" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -12538,86 +12736,86 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="B106" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D106" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F106" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H106" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="133" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="81" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E107" s="32"/>
       <c r="F107" s="81" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G107" s="32"/>
       <c r="H107" s="81" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="81" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K107" s="32"/>
     </row>
     <row r="108" spans="1:11">
       <c r="B108" s="82" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C108" s="34"/>
       <c r="D108" s="82" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E108" s="34"/>
       <c r="F108" s="82" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="82" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I108" s="34"/>
       <c r="J108" s="82" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K108" s="34"/>
     </row>
     <row r="109" spans="1:11">
       <c r="B109" s="82" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="82" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E109" s="34"/>
       <c r="F109" s="82" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G109" s="34"/>
       <c r="H109" s="82" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I109" s="34"/>
       <c r="J109" s="82" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K109" s="34"/>
     </row>
@@ -12635,1360 +12833,1365 @@
     </row>
     <row r="111" spans="1:11">
       <c r="B111" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C111" s="34"/>
       <c r="D111" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E111" s="34"/>
       <c r="F111" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G111" s="34"/>
       <c r="H111" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I111" s="34"/>
       <c r="J111" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K111" s="34"/>
     </row>
     <row r="112" spans="1:11">
       <c r="B112" s="113" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C112" s="34"/>
       <c r="D112" s="82" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E112" s="34"/>
       <c r="F112" s="82" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="82" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I112" s="34"/>
       <c r="J112" s="82" t="s">
+        <v>972</v>
+      </c>
+      <c r="K112" s="34"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="B113" s="134" t="s">
         <v>973</v>
-      </c>
-      <c r="K112" s="34"/>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="134" t="s">
-        <v>974</v>
       </c>
       <c r="C113" s="34"/>
       <c r="D113" s="134" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="134" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="134" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I113" s="34"/>
       <c r="J113" s="134" t="s">
+        <v>973</v>
+      </c>
+      <c r="K113" s="34"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="B114" s="82" t="s">
         <v>974</v>
-      </c>
-      <c r="K113" s="34"/>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="82" t="s">
-        <v>975</v>
       </c>
       <c r="C114" s="34"/>
       <c r="D114" s="82" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="82" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="82" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I114" s="34"/>
       <c r="J114" s="82" t="s">
+        <v>974</v>
+      </c>
+      <c r="K114" s="34"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="B115" s="134" t="s">
         <v>975</v>
-      </c>
-      <c r="K114" s="34"/>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="134" t="s">
-        <v>976</v>
       </c>
       <c r="C115" s="34"/>
       <c r="D115" s="134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E115" s="34"/>
       <c r="F115" s="134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G115" s="34"/>
       <c r="H115" s="134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I115" s="34"/>
       <c r="J115" s="82" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K115" s="34"/>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="1:11">
       <c r="B116" s="82" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C116" s="34"/>
       <c r="D116" s="82" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E116" s="34"/>
       <c r="F116" s="82" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="82" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I116" s="34"/>
       <c r="J116" s="82" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K116" s="34"/>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="1:11">
       <c r="B117" s="82" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C117" s="34"/>
       <c r="D117" s="82" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E117" s="34"/>
       <c r="F117" s="82" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="82" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I117" s="34"/>
       <c r="J117" s="82" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K117" s="34"/>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="1:11">
       <c r="B118" s="82" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C118" s="34"/>
       <c r="D118" s="82" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E118" s="34"/>
       <c r="F118" s="82" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="82" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I118" s="34"/>
       <c r="J118" s="83" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K118" s="36"/>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="1:11">
       <c r="B119" s="82" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C119" s="34"/>
       <c r="D119" s="82" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="82" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="82" t="s">
+        <v>979</v>
+      </c>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="B120" s="82" t="s">
         <v>980</v>
-      </c>
-      <c r="I119" s="34"/>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="82" t="s">
-        <v>981</v>
       </c>
       <c r="C120" s="34"/>
       <c r="D120" s="82" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E120" s="34"/>
       <c r="F120" s="82" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G120" s="34"/>
       <c r="H120" s="82" t="s">
+        <v>980</v>
+      </c>
+      <c r="I120" s="34"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="82" t="s">
         <v>981</v>
-      </c>
-      <c r="I120" s="34"/>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="82" t="s">
-        <v>982</v>
       </c>
       <c r="C121" s="34"/>
       <c r="D121" s="82" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E121" s="34"/>
       <c r="F121" s="82" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G121" s="34"/>
       <c r="H121" s="82" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I121" s="34"/>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="1:11">
       <c r="B122" s="82" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C122" s="34"/>
       <c r="D122" s="82" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E122" s="34"/>
       <c r="F122" s="83" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G122" s="36"/>
       <c r="H122" s="83" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I122" s="36"/>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="1:11">
       <c r="B123" s="82" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C123" s="34"/>
       <c r="D123" s="82" t="s">
+        <v>983</v>
+      </c>
+      <c r="E123" s="34"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="B124" s="83" t="s">
         <v>984</v>
-      </c>
-      <c r="E123" s="34"/>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="83" t="s">
-        <v>985</v>
       </c>
       <c r="C124" s="36"/>
       <c r="D124" s="83" t="s">
+        <v>985</v>
+      </c>
+      <c r="E124" s="36"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="D125" t="s">
         <v>986</v>
       </c>
-      <c r="E124" s="36"/>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="D125" t="s">
-        <v>987</v>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="140" spans="6:6">
       <c r="F140" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="145" spans="6:6">
       <c r="F145" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="154" spans="6:6">
       <c r="F154" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="155" spans="6:6">
       <c r="F155" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="156" spans="6:6">
       <c r="F156" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="157" spans="6:6">
       <c r="F157" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="159" spans="6:6">
       <c r="F159" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="160" spans="6:6">
       <c r="F160" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="161" spans="6:6">
       <c r="F161" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="162" spans="6:6">
       <c r="F162" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163" spans="6:6">
       <c r="F163" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="164" spans="6:6">
       <c r="F164" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="165" spans="6:6">
       <c r="F165" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" spans="6:6">
       <c r="F166" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="167" spans="6:6">
       <c r="F167" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="168" spans="6:6">
       <c r="F168" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="169" spans="6:6">
       <c r="F169" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="170" spans="6:6">
       <c r="F170" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="171" spans="6:6">
       <c r="F171" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="172" spans="6:6">
       <c r="F172" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="173" spans="6:6">
       <c r="F173" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="174" spans="6:6">
       <c r="F174" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="175" spans="6:6">
       <c r="F175" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="176" spans="6:6">
       <c r="F176" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="177" spans="6:6">
       <c r="F177" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="178" spans="6:6">
       <c r="F178" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="179" spans="6:6">
       <c r="F179" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="180" spans="6:6">
       <c r="F180" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="183" spans="6:6">
       <c r="F183" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="184" spans="6:6">
       <c r="F184" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="186" spans="6:6">
       <c r="F186" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="187" spans="6:6">
       <c r="F187" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="188" spans="6:6">
       <c r="F188" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="189" spans="6:6">
       <c r="F189" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="190" spans="6:6">
       <c r="F190" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="191" spans="6:6">
       <c r="F191" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="192" spans="6:6">
       <c r="F192" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="193" spans="6:6">
       <c r="F193" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="194" spans="6:6">
       <c r="F194" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" spans="6:6">
       <c r="F195" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="6:6">
       <c r="F196" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="197" spans="6:6">
       <c r="F197" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="198" spans="6:6">
       <c r="F198" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="199" spans="6:6">
       <c r="F199" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="200" spans="6:6">
       <c r="F200" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="201" spans="6:6">
       <c r="F201" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="202" spans="6:6">
       <c r="F202" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="203" spans="6:6">
       <c r="F203" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="204" spans="6:6">
       <c r="F204" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="205" spans="6:6">
       <c r="F205" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="206" spans="6:6">
       <c r="F206" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="207" spans="6:6">
       <c r="F207" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="6:6">
       <c r="F208" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="209" spans="6:6">
       <c r="F209" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="210" spans="6:6">
       <c r="F210" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="211" spans="6:6">
       <c r="F211" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="6:6">
       <c r="F212" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="213" spans="6:6">
       <c r="F213" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="214" spans="6:6">
       <c r="F214" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="215" spans="6:6">
       <c r="F215" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="216" spans="6:6">
       <c r="F216" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="217" spans="6:6">
       <c r="F217" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="218" spans="6:6">
       <c r="F218" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="219" spans="6:6">
       <c r="F219" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="220" spans="6:6">
       <c r="F220" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="221" spans="6:6">
       <c r="F221" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="223" spans="6:6">
       <c r="F223" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="6:6">
       <c r="F224" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="225" spans="6:6">
       <c r="F225" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="226" spans="6:6">
       <c r="F226" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="228" spans="6:6">
       <c r="F228" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="229" spans="6:6">
       <c r="F229" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="230" spans="6:6">
       <c r="F230" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="231" spans="6:6">
       <c r="F231" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="233" spans="6:6">
       <c r="F233" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="234" spans="6:6">
       <c r="F234" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="235" spans="6:6">
       <c r="F235" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="236" spans="6:6">
       <c r="F236" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="237" spans="6:6">
       <c r="F237" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="238" spans="6:6">
       <c r="F238" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="239" spans="6:6">
       <c r="F239" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="240" spans="6:6">
       <c r="F240" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="241" spans="6:6">
       <c r="F241" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="242" spans="6:6">
       <c r="F242" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243" spans="6:6">
       <c r="F243" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="244" spans="6:6">
       <c r="F244" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="245" spans="6:6">
       <c r="F245" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="246" spans="6:6">
       <c r="F246" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="248" spans="6:6">
       <c r="F248" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="249" spans="6:6">
       <c r="F249" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="250" spans="6:6">
       <c r="F250" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="252" spans="6:6">
       <c r="F252" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="253" spans="6:6">
       <c r="F253" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="254" spans="6:6">
       <c r="F254" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="256" spans="6:6">
       <c r="F256" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="257" spans="6:6">
       <c r="F257" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="258" spans="6:6">
       <c r="F258" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="6:6">
       <c r="F259" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="261" spans="6:6">
       <c r="F261" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="262" spans="6:6">
       <c r="F262" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="263" spans="6:6">
       <c r="F263" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="6:6">
       <c r="F264" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="265" spans="6:6">
       <c r="F265" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="266" spans="6:6">
       <c r="F266" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="267" spans="6:6">
       <c r="F267" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="268" spans="6:6">
       <c r="F268" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="269" spans="6:6">
       <c r="F269" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="270" spans="6:6">
       <c r="F270" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="271" spans="6:6">
       <c r="F271" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="272" spans="6:6">
       <c r="F272" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="273" spans="6:6">
       <c r="F273" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="274" spans="6:6">
       <c r="F274" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="275" spans="6:6">
       <c r="F275" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="276" spans="6:6">
       <c r="F276" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="277" spans="6:6">
       <c r="F277" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="279" spans="6:6">
       <c r="F279" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="280" spans="6:6">
       <c r="F280" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="281" spans="6:6">
       <c r="F281" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="282" spans="6:6">
       <c r="F282" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="283" spans="6:6">
       <c r="F283" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="284" spans="6:6">
       <c r="F284" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="285" spans="6:6">
       <c r="F285" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="286" spans="6:6">
       <c r="F286" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="287" spans="6:6">
       <c r="F287" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="288" spans="6:6">
       <c r="F288" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="289" spans="6:6">
       <c r="F289" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="290" spans="6:6">
       <c r="F290" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="291" spans="6:6">
       <c r="F291" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="292" spans="6:6">
       <c r="F292" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="293" spans="6:6">
       <c r="F293" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="294" spans="6:6">
       <c r="F294" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="6:6">
       <c r="F295" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="297" spans="6:6">
       <c r="F297" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="298" spans="6:6">
       <c r="F298" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="299" spans="6:6">
       <c r="F299" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="300" spans="6:6">
       <c r="F300" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="301" spans="6:6">
       <c r="F301" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="302" spans="6:6">
       <c r="F302" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="303" spans="6:6">
       <c r="F303" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="304" spans="6:6">
       <c r="F304" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="305" spans="6:6">
       <c r="F305" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="307" spans="6:6">
       <c r="F307" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="308" spans="6:6">
       <c r="F308" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="309" spans="6:6">
       <c r="F309" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="310" spans="6:6">
       <c r="F310" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="311" spans="6:6">
       <c r="F311" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="312" spans="6:6">
       <c r="F312" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="313" spans="6:6">
       <c r="F313" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="316" spans="6:6">
       <c r="F316" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="319" spans="6:6">
       <c r="F319" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="321" spans="6:6">
       <c r="F321" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="323" spans="6:6">
       <c r="F323" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="325" spans="6:6">
       <c r="F325" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="326" spans="6:6">
       <c r="F326" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="327" spans="6:6">
       <c r="F327" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="328" spans="6:6">
       <c r="F328" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="329" spans="6:6">
       <c r="F329" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="330" spans="6:6">
       <c r="F330" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="331" spans="6:6">
       <c r="F331" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="332" spans="6:6">
       <c r="F332" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="334" spans="6:6">
       <c r="F334" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="335" spans="6:6">
       <c r="F335" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="336" spans="6:6">
       <c r="F336" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="337" spans="6:6">
       <c r="F337" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="338" spans="6:6">
       <c r="F338" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="339" spans="6:6">
       <c r="F339" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="340" spans="6:6">
       <c r="F340" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="341" spans="6:6">
       <c r="F341" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="342" spans="6:6">
       <c r="F342" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="343" spans="6:6">
       <c r="F343" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="6:6">
       <c r="F344" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="345" spans="6:6">
       <c r="F345" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="346" spans="6:6">
       <c r="F346" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="347" spans="6:6">
       <c r="F347" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="348" spans="6:6">
       <c r="F348" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="349" spans="6:6">
       <c r="F349" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="350" spans="6:6">
       <c r="F350" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="351" spans="6:6">
       <c r="F351" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="352" spans="6:6">
       <c r="F352" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="353" spans="6:6">
       <c r="F353" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="354" spans="6:6">
       <c r="F354" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="355" spans="6:6">
       <c r="F355" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="356" spans="6:6">
       <c r="F356" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="357" spans="6:6">
       <c r="F357" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="358" spans="6:6">
       <c r="F358" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="359" spans="6:6">
       <c r="F359" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="361" spans="6:6">
       <c r="F361" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -14003,8 +14206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14021,17 +14224,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -14039,12 +14242,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14052,220 +14255,220 @@
         <v>2</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="139" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="141" t="s">
         <v>1043</v>
       </c>
-      <c r="B11" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C11" s="141" t="s">
-        <v>1044</v>
-      </c>
       <c r="D11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E11" s="140" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F12" t="s">
         <v>1007</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D15" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F18" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F21" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F22" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D23" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F23" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D24" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F24" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D25" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D26" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F26" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D27" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F27" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F28" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -14273,10 +14476,10 @@
         <v>374</v>
       </c>
       <c r="D29" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F29" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -14284,10 +14487,10 @@
         <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F30" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -14298,7 +14501,7 @@
         <v>374</v>
       </c>
       <c r="F31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -14309,45 +14512,45 @@
         <v>375</v>
       </c>
       <c r="F32" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D33" t="s">
         <v>376</v>
       </c>
       <c r="F33" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D34" t="s">
         <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="F36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -14355,23 +14558,23 @@
         <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F38" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F39" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -14379,12 +14582,12 @@
         <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="F41" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -14392,15 +14595,15 @@
         <v>312</v>
       </c>
       <c r="F42" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F43" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -14408,12 +14611,12 @@
         <v>312</v>
       </c>
       <c r="F44" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="F45" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -14421,21 +14624,21 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D46" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F46" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="27" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F47" t="s">
         <v>374</v>
@@ -14443,10 +14646,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="74" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F48" t="s">
         <v>375</v>
@@ -14454,10 +14657,10 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="76" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D49" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F49" t="s">
         <v>376</v>
@@ -14465,10 +14668,10 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="74" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D50" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F50" t="s">
         <v>374</v>
@@ -14476,129 +14679,129 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="76" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D51" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F51" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="74" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D52" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="76" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D53" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="74" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D54" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="76" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D55" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="74" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="76" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="74" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D58" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D59" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="74" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D60" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="76" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D61" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="74" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D62" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="76" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D63" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="D64" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="D66" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="D67" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -14606,20 +14809,20 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D68" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -14635,7 +14838,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="B73" s="27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C73" s="85">
         <v>2028</v>
@@ -14646,10 +14849,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="C74" s="177" t="s">
         <v>422</v>
-      </c>
-      <c r="C74" s="177" t="s">
-        <v>423</v>
       </c>
       <c r="D74" s="178"/>
     </row>
@@ -14658,7 +14861,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B77" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -14666,60 +14869,60 @@
         <v>4.2</v>
       </c>
       <c r="B92" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="93" spans="1:26">
       <c r="B93" s="149" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C93"/>
       <c r="D93" s="146" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E93"/>
       <c r="F93" s="146" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G93" s="80"/>
       <c r="H93" s="152" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I93" s="33"/>
       <c r="J93" s="152" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K93" s="80"/>
       <c r="L93" s="145" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M93" s="33"/>
       <c r="N93" s="145" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O93" s="80"/>
       <c r="P93" s="148" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q93" s="80"/>
       <c r="R93" s="146" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="S93" s="80"/>
       <c r="T93" s="152" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U93" s="80"/>
       <c r="V93" s="152" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W93" s="80"/>
       <c r="X93" s="145" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Y93" s="80"/>
       <c r="Z93" s="145" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -14803,62 +15006,62 @@
     </row>
     <row r="97" spans="1:26">
       <c r="B97" s="149" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C97"/>
       <c r="D97" s="152" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E97"/>
       <c r="F97" s="145" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G97" s="151"/>
       <c r="H97" s="145" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I97" s="151"/>
       <c r="J97" s="148" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K97" s="151"/>
       <c r="L97" s="148" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="M97" s="151"/>
       <c r="N97" s="152" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O97" s="151"/>
       <c r="P97" s="152" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Q97" s="151"/>
       <c r="R97" s="145" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S97" s="151"/>
       <c r="T97" s="145" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="U97" s="151"/>
       <c r="V97" s="148" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W97" s="151"/>
       <c r="X97" s="148" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Y97" s="151"/>
       <c r="Z97" s="152" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="98" spans="1:26">
       <c r="B98" s="150"/>
       <c r="C98"/>
       <c r="D98" s="153" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E98"/>
       <c r="F98" s="144"/>
@@ -14894,7 +15097,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="C101" s="156" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D101" s="154"/>
       <c r="E101"/>
@@ -14910,7 +15113,7 @@
     <row r="104" spans="1:26">
       <c r="C104"/>
       <c r="D104" s="155" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E104"/>
     </row>
@@ -14919,12 +15122,12 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="106" spans="1:26">
       <c r="B106" s="109" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -14949,16 +15152,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="102.5" customWidth="1"/>
+    <col min="2" max="2" width="74.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="25" width="5.5" customWidth="1"/>
   </cols>
@@ -14968,12 +15171,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="B2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -14988,53 +15191,53 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="149" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E6" s="146" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="152" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="152" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J6" s="80"/>
       <c r="K6" s="145" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="145" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="148" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P6" s="80"/>
       <c r="Q6" s="146" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R6" s="80"/>
       <c r="S6" s="152" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="T6" s="80"/>
       <c r="U6" s="152" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V6" s="80"/>
       <c r="W6" s="145" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="X6" s="80"/>
       <c r="Y6" s="145" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -15113,60 +15316,60 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="149" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="152" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E10" s="145" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="145" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="148" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J10" s="151"/>
       <c r="K10" s="148" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L10" s="151"/>
       <c r="M10" s="152" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="152" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P10" s="151"/>
       <c r="Q10" s="145" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R10" s="151"/>
       <c r="S10" s="145" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="T10" s="151"/>
       <c r="U10" s="148" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V10" s="151"/>
       <c r="W10" s="148" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="X10" s="151"/>
       <c r="Y10" s="152" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="150"/>
       <c r="C11" s="153" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E11" s="144"/>
       <c r="F11" s="80"/>
@@ -15195,13 +15398,13 @@
     </row>
     <row r="14" spans="1:26">
       <c r="B14" s="156" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C14" s="154"/>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" s="155" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -15209,12 +15412,12 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="164" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C21" s="158">
         <v>0.41180555555555554</v>
@@ -15222,7 +15425,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="164" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
@@ -15237,13 +15440,13 @@
     </row>
     <row r="25" spans="1:3" ht="14.25">
       <c r="B25" s="163" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C25" s="157"/>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="166" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C26" s="167"/>
     </row>
@@ -15256,13 +15459,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="160" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C28" s="158"/>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="167" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="167"/>
     </row>
@@ -15275,62 +15478,62 @@
         <v>5</v>
       </c>
       <c r="B31" s="160" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -15343,7 +15546,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -15353,12 +15556,12 @@
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" s="109" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -15368,7 +15571,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -15378,7 +15581,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -15391,94 +15594,99 @@
         <v>5.2</v>
       </c>
       <c r="B57" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="B65" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="B66" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="B67" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="B71" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="109" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="B73" s="109" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76">
-        <v>6</v>
-      </c>
       <c r="B76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="109" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
-        <v>436</v>
-      </c>
-    </row>
     <row r="80" spans="1:2">
-      <c r="B80" s="109" t="s">
+      <c r="B80" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -15548,12 +15756,12 @@
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" t="s">
+      <c r="B94" s="109" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="109" t="s">
+      <c r="B95" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -15577,18 +15785,18 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="109" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>437</v>
-      </c>
-    </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="109" t="s">
+      <c r="B103" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -15664,7 +15872,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="B118" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -15689,26 +15897,29 @@
     </row>
     <row r="123" spans="1:3">
       <c r="B123" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="B124" t="s">
-        <v>1235</v>
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>6.1</v>
+      </c>
+      <c r="B125" s="109" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C125" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
-        <v>6.1</v>
-      </c>
-      <c r="B126" s="109" t="s">
+      <c r="C126" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="B127" t="s">
         <v>1237</v>
       </c>
-      <c r="C126" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
       <c r="C127" t="s">
         <v>1240</v>
       </c>
@@ -15718,23 +15929,23 @@
         <v>1238</v>
       </c>
       <c r="C128" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C129" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C129" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
         <v>1243</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -15755,6 +15966,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15860,7 +16088,7 @@
         <v>42093</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -15869,77 +16097,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Formal_Chamber.xlsx
+++ b/Formal_Chamber.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="1275" windowWidth="2235" windowHeight="5250" tabRatio="728" activeTab="3"/>
+    <workbookView xWindow="8565" yWindow="1305" windowWidth="2235" windowHeight="3630" tabRatio="728" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chamber-Console" sheetId="1" r:id="rId1"/>
     <sheet name="Chamber-Command" sheetId="2" r:id="rId2"/>
     <sheet name="Sup-Command" sheetId="3" r:id="rId3"/>
     <sheet name="04-07" sheetId="31" r:id="rId4"/>
-    <sheet name="04-01" sheetId="32" r:id="rId5"/>
-    <sheet name="04-02" sheetId="33" r:id="rId6"/>
-    <sheet name="04-03" sheetId="34" r:id="rId7"/>
-    <sheet name="Mistake" sheetId="18" r:id="rId8"/>
-    <sheet name="Linux-VIM" sheetId="20" r:id="rId9"/>
+    <sheet name="04-08" sheetId="35" r:id="rId5"/>
+    <sheet name="04-01" sheetId="32" r:id="rId6"/>
+    <sheet name="04-02" sheetId="33" r:id="rId7"/>
+    <sheet name="Path" sheetId="34" r:id="rId8"/>
+    <sheet name="Mistake" sheetId="18" r:id="rId9"/>
+    <sheet name="Linux-VIM" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1199">
   <si>
     <t>Vodka</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3367,1270 +3368,621 @@
     <t>Te3/20        181343275427992   52556595719             0             0</t>
   </si>
   <si>
+    <t>Router#test environment vm set module 1 power-supply all level +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#show int status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#sh ip int br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#sh interface status mod 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm get module 3 power-supply all</t>
+  </si>
+  <si>
+    <t>Power supply 1 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 2 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 3 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 5 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 6 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 7 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 8 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 9 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 10 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 11 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 12 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 13 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 14 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 15 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 16 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 17 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 18 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 19 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 20 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 21 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 22 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 23 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 24 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 25 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 26 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 27 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 28 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 29 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Router#test environment vm set mod 3 power-supply all level -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm get mod 3 power-supply all</t>
+  </si>
+  <si>
+    <t>Power supply 1 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 2 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 3 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 5 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 6 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 7 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 8 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 9 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 10 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 11 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 12 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 13 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 14 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 15 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 16 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 17 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 18 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 19 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 20 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 21 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 22 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 23 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 24 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 25 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 26 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 27 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 28 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 29 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router#   </t>
+  </si>
+  <si>
+    <t>80小时的测试结果还是 vm = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Tequila Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>= powb on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write erase , then power off Router!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router(config)#ip route vrf 101 101.1.1.2 255.255.255.255 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.B.C.D               Forwarding router's address</t>
+  </si>
+  <si>
+    <t>Router(config)#ip route ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.B.C.D  Destination prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  profile  Enable IP routing table profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static   Allow static routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf      Configure static route for a VPN Routing/Forwarding instance</t>
+  </si>
+  <si>
+    <t>Router(config)#ip route vrf 101 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.B.C.D   Destination prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  topology  Configure static route for a Topology Routing/Forwarding instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Async                 Async interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Auto-Template         Auto-Template interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BVI                   Bridge-Group Virtual Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CTunnel               CTunnel interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DHCP                  Default Gateway obtained from DHCP</t>
+  </si>
+  <si>
+    <t>[yojiang@sha-lnx-vm2 ~]$ ssh root@10.74.88.113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tftpboot/shanchen/s6t/v220</t>
+  </si>
+  <si>
+    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/napbund_v220_0323 napbund_v220_0323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/ringbund_v220_0323 ringbund_v220_0323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\gaomwang\Documents\MyJabberFiles\shuzhou@cisco.com</t>
+  </si>
+  <si>
+    <t>Jabber download position:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3A_ROD_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3A_ROD_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/Transformer/Pre_EDVT/Primus/P2B_EDVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多电脑共享一个显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/ce-edvt/Test/configs/yojiang/anteros48/VRFConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia:10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[yojiang@crdc-eng-edvt VRFConfig]$ ./vrf_config_crdc.tcl nappar_slot2_0401.txt</t>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router(config)#no environment-monitor shutdown temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conf snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能用这台虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdc-eng-edvt:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetus-Nappar-Sup2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sup2T + Nappar @ slot 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nappar port1</t>
+  </si>
+  <si>
+    <t>port 32</t>
+  </si>
+  <si>
+    <t>ixia   port1</t>
+  </si>
+  <si>
+    <t>port 2</t>
+  </si>
+  <si>
+    <t>nappar snake:</t>
+  </si>
+  <si>
+    <t>port2 -&gt; port17</t>
+  </si>
+  <si>
+    <t>port3 -&gt; port18</t>
+  </si>
+  <si>
+    <t>port4 -&gt; port19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>port16 -&gt; port31</t>
+  </si>
+  <si>
+    <t>System image file is "bootdisk:c6848x-transformer_ios_0323"</t>
+  </si>
+  <si>
+    <t>PRI 有no shutdown的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia   port3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; represent physical link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI snake:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port1 -&gt; port2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port3 -&gt; port4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port23 -&gt; port24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI-02 port25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port27 -&gt; port28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port39 -&gt; port40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B-PRI-02 @ Vodka Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态 ARP 配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本是这么干的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low vmarg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#show int counter</t>
+  </si>
+  <si>
+    <t>Te3/5         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/6         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/7         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/8         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/9         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/10        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/11        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/12        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/13        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/14        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/15        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/16        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/17        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/18        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/19        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/20        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/5         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/6         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/7         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/8         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/9         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/10        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/11        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/12        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/13        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/14        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/15        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/16        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/17        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/18        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/19        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/20        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router#       </t>
+  </si>
+  <si>
+    <t>niu, OK!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Router#test environment vm set mod 2 power-supply all level +5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Router#test environment vm set module 1 power-supply all level +5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#show int status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#sh ip int br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#sh interface status mod 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voltage -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Router#test environment vm get module 3 power-supply all</t>
-  </si>
-  <si>
-    <t>Power supply 1 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 2 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 3 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 5 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 6 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 7 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 8 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 9 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 10 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 11 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 12 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 13 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 14 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 15 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 16 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 17 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 18 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 19 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 20 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 21 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 22 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 23 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 24 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 25 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 26 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 27 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 28 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 29 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Router#test environment vm set mod 3 power-supply all level -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#test environment vm get mod 3 power-supply all</t>
-  </si>
-  <si>
-    <t>Power supply 1 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 2 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 3 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 5 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 6 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 7 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 8 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 9 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 10 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 11 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 12 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 13 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 14 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 15 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 16 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 17 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 18 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 19 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 20 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 21 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 22 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 23 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 24 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 25 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 26 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 27 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 28 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 29 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router#   </t>
-  </si>
-  <si>
-    <t>80小时的测试结果还是 vm = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For Tequila Chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>= powb on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>write erase , then power off Router!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router(config)#ip route vrf 101 101.1.1.2 255.255.255.255 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A.B.C.D               Forwarding router's address</t>
-  </si>
-  <si>
-    <t>Router(config)#ip route ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A.B.C.D  Destination prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  profile  Enable IP routing table profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  static   Allow static routes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  vrf      Configure static route for a VPN Routing/Forwarding instance</t>
-  </si>
-  <si>
-    <t>Router(config)#ip route vrf 101 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A.B.C.D   Destination prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  topology  Configure static route for a Topology Routing/Forwarding instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Async                 Async interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Auto-Template         Auto-Template interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BVI                   Bridge-Group Virtual Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CTunnel               CTunnel interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DHCP                  Default Gateway obtained from DHCP</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>vrf definition 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> !</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> address-family ipv4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exit-address-family</t>
-  </si>
-  <si>
-    <t>vrf definition 102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:102</t>
-  </si>
-  <si>
-    <t>vrf definition 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:103</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:103</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:103</t>
-  </si>
-  <si>
-    <t>vrf definition 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:104</t>
-  </si>
-  <si>
-    <t>vrf definition 105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:105</t>
-  </si>
-  <si>
-    <t>vrf definition 106</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:106</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:106</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:106</t>
-  </si>
-  <si>
-    <t>vrf definition 107</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:107</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:107</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:107</t>
-  </si>
-  <si>
-    <t>vrf definition 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:108</t>
-  </si>
-  <si>
-    <t>vrf definition 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:109</t>
-  </si>
-  <si>
-    <t>vrf definition 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:110</t>
-  </si>
-  <si>
-    <t>vrf definition 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:111</t>
-  </si>
-  <si>
-    <t>vrf definition 112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:112</t>
-  </si>
-  <si>
-    <t>vrf definition 113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:113</t>
-  </si>
-  <si>
-    <t>vrf definition 114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:114</t>
-  </si>
-  <si>
-    <t>vrf definition 115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:115</t>
-  </si>
-  <si>
-    <t>vrf definition 116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:116</t>
-  </si>
-  <si>
-    <t>vrf definition 117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:117</t>
-  </si>
-  <si>
-    <t>vrf definition 118</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:118</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:118</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:118</t>
-  </si>
-  <si>
-    <t>vrf definition 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:119</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:119</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:119</t>
-  </si>
-  <si>
-    <t>vrf definition 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:120</t>
-  </si>
-  <si>
-    <t>vrf definition 121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd 1:121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target export 1:121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target export 1:121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  route-target import 1:121</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mtu 9216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.10.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> load-balance src-ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no cdp enable</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.10.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.15.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> load-balance dst-ip</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.15.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.20.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.20.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 118</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.25.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.25.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.11.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.11.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.16.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.16.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.21.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.21.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.26.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.26.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.8.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.8.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 106</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.13.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 107</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.13.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.18.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.18.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.23.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.23.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 90.2.1.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 101.1.1.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.12.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0028</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.12.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0029</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.17.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.17.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0031</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.22.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0032</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.22.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0033</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.9.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0034</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.9.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0035</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.14.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.14.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.19.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/38</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0038</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.19.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.24.1 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface TenGigabitEthernet1/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ip address 10.1.24.2 255.255.255.0</t>
-  </si>
-  <si>
-    <t>interface FortyGigabitEthernet1/41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0041</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vrf forwarding 121</t>
-  </si>
-  <si>
-    <t>interface FortyGigabitEthernet1/42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mac-address 0000.0001.0042</t>
-  </si>
-  <si>
-    <t>ip route vrf 101 101.1.1.2 255.255.255.255 10.1.8.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 102 90.2.1.2 255.255.255.255 10.1.8.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 102 101.1.1.2 255.255.255.255 10.1.9.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 103 90.2.1.2 255.255.255.255 10.1.9.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 103 101.1.1.2 255.255.255.255 10.1.10.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 104 90.2.1.2 255.255.255.255 10.1.10.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 104 101.1.1.2 255.255.255.255 10.1.11.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 105 90.2.1.2 255.255.255.255 10.1.11.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 105 101.1.1.2 255.255.255.255 10.1.12.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 106 90.2.1.2 255.255.255.255 10.1.12.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 106 101.1.1.2 255.255.255.255 10.1.13.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 107 90.2.1.2 255.255.255.255 10.1.13.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 107 101.1.1.2 255.255.255.255 10.1.14.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 108 90.2.1.2 255.255.255.255 10.1.14.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 108 101.1.1.2 255.255.255.255 10.1.15.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 109 90.2.1.2 255.255.255.255 10.1.15.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 109 101.1.1.2 255.255.255.255 10.1.16.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 110 90.2.1.2 255.255.255.255 10.1.16.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 110 101.1.1.2 255.255.255.255 10.1.17.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 111 90.2.1.2 255.255.255.255 10.1.17.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 111 101.1.1.2 255.255.255.255 10.1.18.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 112 90.2.1.2 255.255.255.255 10.1.18.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 112 101.1.1.2 255.255.255.255 10.1.19.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 113 90.2.1.2 255.255.255.255 10.1.19.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 113 101.1.1.2 255.255.255.255 10.1.20.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 114 90.2.1.2 255.255.255.255 10.1.20.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 114 101.1.1.2 255.255.255.255 10.1.21.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 115 90.2.1.2 255.255.255.255 10.1.21.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 115 101.1.1.2 255.255.255.255 10.1.22.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 116 90.2.1.2 255.255.255.255 10.1.22.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 116 101.1.1.2 255.255.255.255 10.1.23.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 117 90.2.1.2 255.255.255.255 10.1.23.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 117 101.1.1.2 255.255.255.255 10.1.24.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 118 90.2.1.2 255.255.255.255 10.1.24.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 118 101.1.1.2 255.255.255.255 10.1.25.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 119 90.2.1.2 255.255.255.255 10.1.25.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 119 101.1.1.2 255.255.255.255 10.1.26.2</t>
-  </si>
-  <si>
-    <t>ip route vrf 120 90.2.1.2 255.255.255.255 10.1.26.1</t>
-  </si>
-  <si>
-    <t>ip route vrf 121 90.2.1.0 255.255.255.0 101.1.1.0</t>
-  </si>
-  <si>
-    <t>ip route vrf 121 101.1.1.0 255.255.255.0 90.2.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> route-target import 1:101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[yojiang@sha-lnx-vm2 ~]$ ssh root@10.74.88.113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tftpboot/shanchen/s6t/v220</t>
-  </si>
-  <si>
-    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/napbund_v220_0323 napbund_v220_0323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/ringbund_v220_0323 ringbund_v220_0323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\gaomwang\Documents\MyJabberFiles\shuzhou@cisco.com</t>
-  </si>
-  <si>
-    <t>Jabber download position:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3A_ROD_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3A_ROD_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/Transformer/Pre_EDVT/Primus/P2B_EDVT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多电脑共享一个显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm set mod 3 power-supply all level +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续去跑 vmarg high.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4776,7 +4128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -5150,11 +4502,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5463,6 +4881,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5503,6 +4937,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5674,6 +5114,87 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160694</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="9857144" cy="7695239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598972</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>18659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="13077825"/>
+          <a:ext cx="8828572" cy="3133334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -5749,7 +5270,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6596,7 +6117,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6928,15 +6449,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
@@ -6997,13 +6518,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="151">
+      <c r="C5" s="165">
         <v>2006</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="167" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -7011,41 +6532,41 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="153"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="149"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="167"/>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="149"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="153"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="167"/>
       <c r="E9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B10" s="150"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="154"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
@@ -7103,29 +6624,34 @@
       <c r="F14" s="24" t="s">
         <v>395</v>
       </c>
+      <c r="G14" s="144" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="83" t="s">
-        <v>1423</v>
+        <v>1104</v>
       </c>
       <c r="C15" s="66">
         <v>2012</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>1424</v>
+        <v>1105</v>
       </c>
       <c r="E15" s="66">
         <v>2009</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>1425</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>1.2</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>1112</v>
+      </c>
       <c r="C17" s="66" t="s">
         <v>672</v>
       </c>
@@ -7249,10 +6775,10 @@
       <c r="D28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="144" t="s">
+      <c r="G28" s="158" t="s">
         <v>949</v>
       </c>
-      <c r="H28" s="145"/>
+      <c r="H28" s="159"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
@@ -7266,13 +6792,13 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="165">
         <v>2032</v>
       </c>
-      <c r="D30" s="153" t="s">
+      <c r="D30" s="167" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -7281,26 +6807,26 @@
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="149"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="153"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="167"/>
       <c r="E31" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="149"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="153"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="167"/>
       <c r="E32" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" thickBot="1">
-      <c r="B33" s="150"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="154"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="11" t="s">
         <v>31</v>
       </c>
@@ -7494,10 +7020,10 @@
       <c r="B47" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="169" t="s">
         <v>417</v>
       </c>
-      <c r="D47" s="156"/>
+      <c r="D47" s="170"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" thickBot="1">
       <c r="A49">
@@ -7539,7 +7065,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="B53" s="146" t="s">
+      <c r="B53" s="160" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="8">
@@ -7553,7 +7079,7 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="B54" s="147"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="8" t="s">
         <v>326</v>
       </c>
@@ -7565,7 +7091,7 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="B55" s="147"/>
+      <c r="B55" s="161"/>
       <c r="C55" s="8">
         <v>2037</v>
       </c>
@@ -7577,7 +7103,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="14.25" thickBot="1">
-      <c r="B56" s="148"/>
+      <c r="B56" s="162"/>
       <c r="C56" s="16">
         <v>2038</v>
       </c>
@@ -7683,7 +7209,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="B66" s="146" t="s">
+      <c r="B66" s="160" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="21">
@@ -7700,7 +7226,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="B67" s="147"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="8">
         <v>2050</v>
       </c>
@@ -7715,7 +7241,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="B68" s="147"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="8">
         <v>2051</v>
       </c>
@@ -7730,7 +7256,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" thickBot="1">
-      <c r="B69" s="148"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="16">
         <v>2052</v>
       </c>
@@ -7844,7 +7370,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="B80" s="149" t="s">
+      <c r="B80" s="163" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="8">
@@ -7861,7 +7387,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="B81" s="149"/>
+      <c r="B81" s="163"/>
       <c r="C81" s="8">
         <v>2004</v>
       </c>
@@ -7876,7 +7402,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="B82" s="149"/>
+      <c r="B82" s="163"/>
       <c r="C82" s="8">
         <v>2005</v>
       </c>
@@ -7891,7 +7417,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B83" s="150"/>
+      <c r="B83" s="164"/>
       <c r="C83" s="16">
         <v>2006</v>
       </c>
@@ -7926,7 +7452,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="B86" s="101" t="s">
-        <v>1426</v>
+        <v>1107</v>
       </c>
       <c r="C86" s="24">
         <v>2014</v>
@@ -8056,6 +7582,89 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="C47:D47"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8081,11 +7690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
       <c r="G1" t="s">
         <v>397</v>
       </c>
@@ -8364,12 +7973,12 @@
         <v>948</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25">
       <c r="B33" s="135" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C33" s="137"/>
     </row>
@@ -8386,8 +7995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8536,7 +8145,7 @@
         <v>657</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="78" t="s">
@@ -8582,7 +8191,7 @@
         <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F12" s="78" t="s">
         <v>432</v>
@@ -8599,7 +8208,7 @@
         <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>433</v>
@@ -8613,7 +8222,7 @@
         <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F14" s="78" t="s">
         <v>434</v>
@@ -8655,7 +8264,7 @@
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="32" t="s">
-        <v>1014</v>
+        <v>1193</v>
       </c>
       <c r="F17" s="78" t="s">
         <v>437</v>
@@ -8665,6 +8274,9 @@
       </c>
     </row>
     <row r="18" spans="4:9">
+      <c r="D18" s="15" t="s">
+        <v>1116</v>
+      </c>
       <c r="F18" t="s">
         <v>438</v>
       </c>
@@ -9946,8 +9558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10212,10 +9824,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1020</v>
+        <v>1194</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -10223,12 +9835,12 @@
     </row>
     <row r="52" spans="1:6">
       <c r="C52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -10236,135 +9848,135 @@
         <v>1.2</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="C55" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="C56" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="C57" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="C59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="C60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="C61" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -10377,159 +9989,159 @@
         <v>1.2</v>
       </c>
       <c r="B82" s="87" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C82" s="87"/>
       <c r="D82" s="87"/>
     </row>
     <row r="83" spans="1:4">
       <c r="C83" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="C84" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="C85" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="C86" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="C87" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="C88" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="C89" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="C91" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="C92" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="C93" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="C94" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="C95" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="C113" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10542,7 +10154,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10550,27 +10162,27 @@
         <v>2.1</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="B121" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="B122" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="B123" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="B124" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10578,17 +10190,17 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="B127" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10596,39 +10208,39 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:6">
       <c r="B131" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="B133" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="B134" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="B135" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="B136" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -10636,12 +10248,12 @@
         <v>3</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>1422</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="B139" t="s">
-        <v>1421</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.25" thickBot="1">
@@ -10796,19 +10408,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="B155" s="29" t="s">
-        <v>1423</v>
+        <v>1104</v>
       </c>
       <c r="C155" s="24">
         <v>2012</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>1424</v>
+        <v>1105</v>
       </c>
       <c r="E155" s="24">
         <v>2009</v>
       </c>
       <c r="F155" s="27" t="s">
-        <v>1425</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -10816,7 +10428,7 @@
         <v>5</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1428</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -10828,10 +10440,689 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A49">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="172" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B50" s="173"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="145" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B51" s="146" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="145" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B52" s="146" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A53" s="147" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B53" s="148" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" thickBot="1"/>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1.3</v>
+      </c>
+      <c r="B56" s="149" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C56" s="155" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B57" s="154" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C57" s="148" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="150"/>
+      <c r="C58" s="151"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="150" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C59" s="151"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="150" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C60" s="151"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="150"/>
+      <c r="C61" s="151"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="150" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C62" s="151"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="150"/>
+      <c r="C63" s="151"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="150" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C64" s="151"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="150" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C65" s="151"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" s="150" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C66" s="151"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="150" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C67" s="151"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="150" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C68" s="151"/>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B69" s="152" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C69" s="153"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1.4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" thickBot="1"/>
+    <row r="78" spans="1:3">
+      <c r="B78" s="149" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C78" s="155" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B79" s="154" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C79" s="148" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" s="156" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C80" s="151"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="150" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C81" s="151"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="150" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C82" s="151"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="150"/>
+      <c r="C83" s="151"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="150" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C84" s="151"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="150" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C85" s="151"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="157" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C86" s="151"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="150" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C87" s="151"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="150"/>
+      <c r="C88" s="151"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="150" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C89" s="151"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="150" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C90" s="151"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="150" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C91" s="151"/>
+    </row>
+    <row r="92" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B92" s="152" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C92" s="153"/>
+    </row>
+    <row r="95" spans="2:3" ht="14.25" thickBot="1"/>
+    <row r="96" spans="2:3">
+      <c r="B96" s="172" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C96" s="173"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="B97" s="145" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C97" s="146" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="B98" s="145" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C98" s="146" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.25" thickBot="1">
+      <c r="B99" s="147" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C99" s="148" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="B102" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="B105" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J105" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="B106" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="C107" t="s">
+        <v>428</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="C108" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="C109" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="C110" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="C111" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="C112" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10">
+      <c r="C113" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10">
+      <c r="C114" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10">
+      <c r="C115" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10">
+      <c r="C116" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10">
+      <c r="C117" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10">
+      <c r="C118" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10">
+      <c r="C119" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10">
+      <c r="C120" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10">
+      <c r="C121" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10">
+      <c r="C122" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10">
+      <c r="C123" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10">
+      <c r="C124" t="s">
+        <v>950</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10">
+      <c r="C125" t="s">
+        <v>951</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10">
+      <c r="C126" t="s">
+        <v>952</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10">
+      <c r="C127" t="s">
+        <v>953</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10">
+      <c r="C128" t="s">
+        <v>954</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10">
+      <c r="J129" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10">
+      <c r="C130" t="s">
+        <v>429</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10">
+      <c r="C131" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10">
+      <c r="C132" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10">
+      <c r="C133" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10">
+      <c r="C134" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10">
+      <c r="C135" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10">
+      <c r="C136" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10">
+      <c r="C137" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10">
+      <c r="C138" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10">
+      <c r="C139" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10">
+      <c r="C140" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10">
+      <c r="C141" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10">
+      <c r="C142" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10">
+      <c r="C143" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10">
+      <c r="C144" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="C145" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="C146" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="C147" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="C148" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="C149" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="C150" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="C151" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="C152" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B154" s="87" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="B156" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B96:C96"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13282,12 +13573,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13309,7 +13600,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1427</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13931,10 +14222,10 @@
       <c r="B74" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C74" s="155" t="s">
+      <c r="C74" s="169" t="s">
         <v>417</v>
       </c>
-      <c r="D74" s="156"/>
+      <c r="D74" s="170"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
@@ -14230,21 +14521,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B176" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.125" customWidth="1"/>
-    <col min="5" max="5" width="42.125" customWidth="1"/>
+    <col min="5" max="5" width="87.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" customWidth="1"/>
     <col min="8" max="8" width="3.625" customWidth="1"/>
@@ -14254,2158 +14545,27 @@
     <col min="12" max="22" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1101</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1133</v>
+        <v>1110</v>
       </c>
       <c r="C2" t="s">
-        <v>1163</v>
+        <v>1111</v>
       </c>
       <c r="E2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
         <v>1114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F94" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="B105" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="B106" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="E109" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="E110" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="E111" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="E112" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6">
-      <c r="E113" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6">
-      <c r="E114" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6">
-      <c r="E115" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F115" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6">
-      <c r="E116" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6">
-      <c r="E117" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6">
-      <c r="E118" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6">
-      <c r="E119" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6">
-      <c r="E120" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6">
-      <c r="E121" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6">
-      <c r="E122" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6">
-      <c r="E123" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6">
-      <c r="E124" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6">
-      <c r="E125" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F125" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="126" spans="5:6">
-      <c r="E126" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="127" spans="5:6">
-      <c r="E127" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="128" spans="5:6">
-      <c r="E128" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="E131" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="E132" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="E133" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6">
-      <c r="E134" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6">
-      <c r="E136" t="s">
-        <v>1302</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="137" spans="5:6">
-      <c r="E137" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="138" spans="5:6">
-      <c r="E138" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="139" spans="5:6">
-      <c r="E139" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6">
-      <c r="E140" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="141" spans="5:6">
-      <c r="E141" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="142" spans="5:6">
-      <c r="E142" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="143" spans="5:6">
-      <c r="E143" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6">
-      <c r="E144" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6">
-      <c r="E145" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6">
-      <c r="E146" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6">
-      <c r="E147" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6">
-      <c r="E148" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6">
-      <c r="E149" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6">
-      <c r="E150" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6">
-      <c r="E151" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6">
-      <c r="E152" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="153" spans="5:6">
-      <c r="E153" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="154" spans="5:6">
-      <c r="E154" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6">
-      <c r="E155" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F155" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="156" spans="5:6">
-      <c r="E156" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5">
-      <c r="E163" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5">
-      <c r="E164" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5">
-      <c r="E165" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="166" spans="5:5">
-      <c r="E166" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="167" spans="5:5">
-      <c r="E167" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="168" spans="5:5">
-      <c r="E168" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5">
-      <c r="E169" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="170" spans="5:5">
-      <c r="E170" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="171" spans="5:5">
-      <c r="E171" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="172" spans="5:5">
-      <c r="E172" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5">
-      <c r="E173" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="174" spans="5:5">
-      <c r="E174" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="175" spans="5:5">
-      <c r="E175" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="176" spans="5:5">
-      <c r="E176" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="177" spans="5:5">
-      <c r="E177" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="178" spans="5:5">
-      <c r="E178" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="179" spans="5:5">
-      <c r="E179" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="180" spans="5:5">
-      <c r="E180" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="184" spans="5:5">
-      <c r="E184" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="185" spans="5:5">
-      <c r="E185" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="186" spans="5:5">
-      <c r="E186" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="187" spans="5:5">
-      <c r="E187" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="188" spans="5:5">
-      <c r="E188" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="189" spans="5:5">
-      <c r="E189" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="190" spans="5:5">
-      <c r="E190" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="191" spans="5:5">
-      <c r="E191" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="192" spans="5:5">
-      <c r="E192" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="193" spans="5:5">
-      <c r="E193" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="194" spans="5:5">
-      <c r="E194" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="195" spans="5:5">
-      <c r="E195" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="196" spans="5:5">
-      <c r="E196" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="197" spans="5:5">
-      <c r="E197" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="198" spans="5:5">
-      <c r="E198" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="199" spans="5:5">
-      <c r="E199" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5">
-      <c r="E200" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="201" spans="5:5">
-      <c r="E201" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5">
-      <c r="E202" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="203" spans="5:5">
-      <c r="E203" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5">
-      <c r="E204" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="205" spans="5:5">
-      <c r="E205" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="206" spans="5:5">
-      <c r="E206" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="207" spans="5:5">
-      <c r="E207" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="208" spans="5:5">
-      <c r="E208" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="209" spans="5:5">
-      <c r="E209" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="210" spans="5:5">
-      <c r="E210" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -16415,7 +14575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -16531,87 +14691,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Formal_Chamber.xlsx
+++ b/Formal_Chamber.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="1335" windowWidth="2235" windowHeight="3600" tabRatio="728" activeTab="6"/>
+    <workbookView xWindow="8565" yWindow="1425" windowWidth="2235" windowHeight="3510" tabRatio="817"/>
   </bookViews>
   <sheets>
     <sheet name="Chamber-Console" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,17 @@
     <sheet name="04-07" sheetId="31" r:id="rId5"/>
     <sheet name="04-08" sheetId="35" r:id="rId6"/>
     <sheet name="04-09" sheetId="36" r:id="rId7"/>
-    <sheet name="Mistake" sheetId="18" r:id="rId8"/>
-    <sheet name="Linux-VIM" sheetId="20" r:id="rId9"/>
+    <sheet name="04-10" sheetId="37" r:id="rId8"/>
+    <sheet name="04-11" sheetId="38" r:id="rId9"/>
+    <sheet name="Mistake" sheetId="18" r:id="rId10"/>
+    <sheet name="Linux-VIM" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1001">
   <si>
     <t>Vodka</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1956,888 +1958,1566 @@
     <t>Te3/20        181343275427992   52556595719             0             0</t>
   </si>
   <si>
+    <t>Router#show int status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#sh ip int br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#sh interface status mod 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm get module 3 power-supply all</t>
+  </si>
+  <si>
+    <t>Power supply 1 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 2 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 3 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 5 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 6 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 7 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 8 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 9 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 10 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 11 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 12 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 13 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 14 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 15 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 16 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 17 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 18 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 19 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 20 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 21 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 22 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 23 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 24 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 25 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 26 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 27 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 28 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Power supply 29 : Voltage margin level is 0</t>
+  </si>
+  <si>
+    <t>Router#test environment vm set mod 3 power-supply all level -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm get mod 3 power-supply all</t>
+  </si>
+  <si>
+    <t>Power supply 1 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 2 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 3 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 5 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 6 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 7 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 8 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 9 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 10 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 11 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 12 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 13 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 14 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 15 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 16 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 17 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 18 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 19 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 20 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 21 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 22 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 23 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 24 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 25 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 26 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 27 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 28 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t>Power supply 29 : Voltage margin level is -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router#   </t>
+  </si>
+  <si>
+    <t>80小时的测试结果还是 vm = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Tequila Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>= powb on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write erase , then power off Router!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router(config)#ip route vrf 101 101.1.1.2 255.255.255.255 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.B.C.D               Forwarding router's address</t>
+  </si>
+  <si>
+    <t>Router(config)#ip route ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.B.C.D  Destination prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  profile  Enable IP routing table profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static   Allow static routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf      Configure static route for a VPN Routing/Forwarding instance</t>
+  </si>
+  <si>
+    <t>Router(config)#ip route vrf 101 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.B.C.D   Destination prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  topology  Configure static route for a Topology Routing/Forwarding instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Async                 Async interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Auto-Template         Auto-Template interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BVI                   Bridge-Group Virtual Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CTunnel               CTunnel interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DHCP                  Default Gateway obtained from DHCP</t>
+  </si>
+  <si>
+    <t>[yojiang@sha-lnx-vm2 ~]$ ssh root@10.74.88.113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tftpboot/shanchen/s6t/v220</t>
+  </si>
+  <si>
+    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/napbund_v220_0323 napbund_v220_0323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/ringbund_v220_0323 ringbund_v220_0323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\gaomwang\Documents\MyJabberFiles\shuzhou@cisco.com</t>
+  </si>
+  <si>
+    <t>Jabber download position:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3A_ROD_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3A_ROD_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多电脑共享一个显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/ce-edvt/Test/configs/yojiang/anteros48/VRFConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia:10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[yojiang@crdc-eng-edvt VRFConfig]$ ./vrf_config_crdc.tcl nappar_slot2_0401.txt</t>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conf snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能用这台虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdc-eng-edvt:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetus-Nappar-Sup2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sup2T + Nappar @ slot 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nappar port1</t>
+  </si>
+  <si>
+    <t>port 32</t>
+  </si>
+  <si>
+    <t>ixia   port1</t>
+  </si>
+  <si>
+    <t>port 2</t>
+  </si>
+  <si>
+    <t>nappar snake:</t>
+  </si>
+  <si>
+    <t>port2 -&gt; port17</t>
+  </si>
+  <si>
+    <t>port3 -&gt; port18</t>
+  </si>
+  <si>
+    <t>port4 -&gt; port19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>port16 -&gt; port31</t>
+  </si>
+  <si>
+    <t>System image file is "bootdisk:c6848x-transformer_ios_0323"</t>
+  </si>
+  <si>
+    <t>PRI 有no shutdown的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia   port3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; represent physical link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI snake:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port1 -&gt; port2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port3 -&gt; port4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port23 -&gt; port24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI-02 port25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port27 -&gt; port28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port39 -&gt; port40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B-PRI-02 @ Vodka Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态 ARP 配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本是这么干的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low vmarg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#show int counter</t>
+  </si>
+  <si>
+    <t>Te3/5         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/6         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/7         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/8         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/9         68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/10        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/11        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/12        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/13        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/14        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/15        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/16        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/17        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/18        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/19        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/20        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/5         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/6         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/7         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/8         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/9         68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/10        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/11        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/12        68923869712794   19149065729             0             0</t>
+  </si>
+  <si>
+    <t>Te3/13        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/14        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/15        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/16        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/17        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/18        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/19        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t>Te3/20        68923874999680   19149067105             0             0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router#       </t>
+  </si>
+  <si>
+    <t>niu, OK!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm get module 3 power-supply all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#test environment vm set mod 3 power-supply all level +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续去跑 vmarg high.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B_TRA_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA IP:10.74.88.183</t>
+  </si>
+  <si>
+    <t>IXIA IP:10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/darts</t>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/Transformer/Pre_EDVT/Primus/P3A_EDVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3A_EDVT</t>
+  </si>
+  <si>
+    <t>Init 1  - Board_type : TRANSFORMER[32]</t>
+  </si>
+  <si>
+    <t>P2B-TRA-02 FPGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B-PRI-09 FPGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callisto FPGA Version:    [0x00000045]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot tftp://10.74.88.113/yojiang/xformer_0303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/callisto_rev47_15031312_upg.rpd</t>
+  </si>
+  <si>
+    <t>Router#sh diagnostic result switch all</t>
+  </si>
+  <si>
+    <t>SP1&gt;1% show fpga version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP1&gt;1%sysr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqqqqqqqqqqqqqqqqqqqqqqqqqqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B-PRI-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA IP:10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B_PRI_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2B_PRI_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router(config)#no environment-monitor shutdown temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /auto/crdc_ebbu_edvt/yojiang/Cat6k/darts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darts4.0&gt; dscp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./darts_rev4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darts4.0&gt; dscp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/darts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root@10.74.88.113:/tftpboot/jiagu/sup6t/0409_s6tbund_intr82780</t>
+  </si>
+  <si>
+    <t>sup6t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1B-PRI-12 / Ten1/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA:10.74.88.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1B-TRA-10 / Ten1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nappar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sup2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6506-Nappar-port1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA port1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6506-Nappar-Port32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA port2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetus-Nappar-port1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetus-Nappar-port32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IXIA IP:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power-Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.74.88.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM is:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdc-eng-edvt:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update test status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto/crdc_ebbu_edvt/yojiang/logs/yojiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup6T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linecard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDVT:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootdisk:0409_s6tbund_intr82780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk0:c2lc_v200_0213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip 251?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nappar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sup-10-Port1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sup-10-Port2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">edvt:4 </t>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/yojiang/gaom_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 个 xml 文件莫名的丢了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P3A-TRA-01 的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Chamber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>调节成55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, P2B_OPT_02 的放在 -10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chamber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>里（10.74.88.28）？</t>
+    </r>
+  </si>
+  <si>
+    <t>P2B-OPT-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power slot 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>= kssr 4 on/off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server ip:10.74.88.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sup6T Run Fail Info: crdc-eng-edvt:3 session:Sup6T</t>
+  </si>
+  <si>
+    <t>Router#test environment vm set mod 2 power-supply all level +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jim-estella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router#sh interfaces counters errors</t>
+  </si>
+  <si>
+    <t>Port                     Align-Err             FCS-Err            Xmit-Err             Rcv-Err           UnderSize         OutDiscards</t>
+  </si>
+  <si>
+    <t>Te3/5                            0                   0                   0              408804                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/6                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/7                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/8                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/9                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/10                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/11                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/12                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/13                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/14                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/15                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/16                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/17                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/18                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/19                           0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/20                           0                   5                   0                   5                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/1                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/2                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/3                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te6/4                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te6/5                            0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Port                    Single-Col           Multi-Col            Late-Col          Excess-Col           Carri-Sen               Runts              Giants</t>
+  </si>
+  <si>
+    <t>Te3/5                            0                   0                   0                   0                   0                   0          5343006281</t>
+  </si>
+  <si>
+    <t>Te3/6                            0                   0                   0                   0                   0                   0          5342297384</t>
+  </si>
+  <si>
+    <t>Te3/7                            0                   0                   0                   0                   0                   0          5342252149</t>
+  </si>
+  <si>
+    <t>Te3/8                            0                   0                   0                   0                   0                   0          5342207741</t>
+  </si>
+  <si>
+    <t>Te3/9                            0                   0                   0                   0                   0                   0          5341927162</t>
+  </si>
+  <si>
+    <t>Te3/10                           0                   0                   0                   0                   0                   0          5341927162</t>
+  </si>
+  <si>
+    <t>Te3/11                           0                   0                   0                   0                   0                   0          5341923931</t>
+  </si>
+  <si>
+    <t>Te3/12                           0                   0                   0                   0                   0                   0          5341923931</t>
+  </si>
+  <si>
+    <t>Te3/13                           0                   0                   0                   0                   0                   0          5341923493</t>
+  </si>
+  <si>
+    <t>Te3/14                           0                   0                   0                   0                   0                   0          5341923493</t>
+  </si>
+  <si>
+    <t>Te3/15                           0                   0                   0                   0                   0                   0          5341923493</t>
+  </si>
+  <si>
+    <t>Te3/16                           0                   0                   0                   0                   0                   0          5341923493</t>
+  </si>
+  <si>
+    <t>Te3/17                           0                   0                   0                   0                   0                   0          5341923493</t>
+  </si>
+  <si>
+    <t>Te3/18                           0                   0                   0                   0                   0                   0          5342012709</t>
+  </si>
+  <si>
+    <t>Te3/19                           0                   0                   0                   0                   0                   0          5342012709</t>
+  </si>
+  <si>
+    <t>Te3/20                           0                   0                   0                   0                   0                   0          5342472660</t>
+  </si>
+  <si>
+    <t>Gi6/1                            0                   0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/2                            0                   0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/3                            0                   0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te6/4                            0                   0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te6/5                            0                   0                   0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Port                   SQETest-Err         Deferred-Tx        IntMacTx-Err        IntMacRx-Err          Symbol-Err</t>
+  </si>
+  <si>
+    <t>Te3/5                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/6                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/7                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/8                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/9                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/10                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/11                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/12                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/13                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/14                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/15                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/16                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/17                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/18                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/19                           0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te3/20                           0                   0                   0                   0                   5</t>
+  </si>
+  <si>
+    <t>Gi6/1                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/2                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Gi6/3                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te6/4                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
+    <t>Te6/5                            0                   0                   0                   0                   0</t>
+  </si>
+  <si>
     <t>Router#test environment vm set module 1 power-supply all level +5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Router#show int status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#sh ip int br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#sh interface status mod 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voltage -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#test environment vm get module 3 power-supply all</t>
-  </si>
-  <si>
-    <t>Power supply 1 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 2 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 3 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 5 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 6 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 7 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 8 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 9 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 10 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 11 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 12 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 13 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 14 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 15 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 16 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 17 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 18 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 19 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 20 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 21 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 22 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 23 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 24 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 25 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 26 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 27 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 28 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Power supply 29 : Voltage margin level is 0</t>
-  </si>
-  <si>
-    <t>Router#test environment vm set mod 3 power-supply all level -5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#test environment vm get mod 3 power-supply all</t>
-  </si>
-  <si>
-    <t>Power supply 1 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 2 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 3 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 5 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 6 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 7 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 8 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 9 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 10 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 11 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 12 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 13 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 14 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 15 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 16 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 17 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 18 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 19 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 20 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 21 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 22 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 23 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 24 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 25 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 26 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 27 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 28 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t>Power supply 29 : Voltage margin level is -5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router#   </t>
-  </si>
-  <si>
-    <t>80小时的测试结果还是 vm = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For Tequila Chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>= powb on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>write erase , then power off Router!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router(config)#ip route vrf 101 101.1.1.2 255.255.255.255 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A.B.C.D               Forwarding router's address</t>
-  </si>
-  <si>
-    <t>Router(config)#ip route ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A.B.C.D  Destination prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  profile  Enable IP routing table profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  static   Allow static routes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  vrf      Configure static route for a VPN Routing/Forwarding instance</t>
-  </si>
-  <si>
-    <t>Router(config)#ip route vrf 101 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A.B.C.D   Destination prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  topology  Configure static route for a Topology Routing/Forwarding instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Async                 Async interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Auto-Template         Auto-Template interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BVI                   Bridge-Group Virtual Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CTunnel               CTunnel interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DHCP                  Default Gateway obtained from DHCP</t>
-  </si>
-  <si>
-    <t>[yojiang@sha-lnx-vm2 ~]$ ssh root@10.74.88.113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tftpboot/shanchen/s6t/v220</t>
-  </si>
-  <si>
-    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/napbund_v220_0323 napbund_v220_0323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scp root@10.74.88.113:/tftpboot/shanchen/s6t/v220/ringbund_v220_0323 ringbund_v220_0323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\gaomwang\Documents\MyJabberFiles\shuzhou@cisco.com</t>
-  </si>
-  <si>
-    <t>Jabber download position:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3A_ROD_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3A_ROD_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多电脑共享一个显示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config snake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auto/ce-edvt/Test/configs/yojiang/anteros48/VRFConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.74.88.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ixia:10.74.88.184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[yojiang@crdc-eng-edvt VRFConfig]$ ./vrf_config_crdc.tcl nappar_slot2_0401.txt</t>
-  </si>
-  <si>
-    <t>example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conf snake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能用这台虚拟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crdc-eng-edvt:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vm:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>session:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cetus-Nappar-Sup2T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ixia:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.74.88.184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sup2T + Nappar @ slot 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nappar port1</t>
-  </si>
-  <si>
-    <t>port 32</t>
-  </si>
-  <si>
-    <t>ixia   port1</t>
-  </si>
-  <si>
-    <t>port 2</t>
-  </si>
-  <si>
-    <t>nappar snake:</t>
-  </si>
-  <si>
-    <t>port2 -&gt; port17</t>
-  </si>
-  <si>
-    <t>port3 -&gt; port18</t>
-  </si>
-  <si>
-    <t>port4 -&gt; port19</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>port16 -&gt; port31</t>
-  </si>
-  <si>
-    <t>System image file is "bootdisk:c6848x-transformer_ios_0323"</t>
-  </si>
-  <si>
-    <t>PRI 有no shutdown的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ixia   port3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; represent physical link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI snake:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port1 -&gt; port2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port3 -&gt; port4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port23 -&gt; port24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI-02 port25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port27 -&gt; port28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port39 -&gt; port40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2B-PRI-02 @ Vodka Chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态 ARP 配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本是这么干的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low vmarg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#show int counter</t>
-  </si>
-  <si>
-    <t>Te3/5         68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/6         68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/7         68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/8         68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/9         68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/10        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/11        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/12        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/13        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/14        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/15        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/16        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/17        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/18        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/19        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/20        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/5         68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/6         68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/7         68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/8         68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/9         68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/10        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/11        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/12        68923869712794   19149065729             0             0</t>
-  </si>
-  <si>
-    <t>Te3/13        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/14        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/15        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/16        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/17        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/18        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/19        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t>Te3/20        68923874999680   19149067105             0             0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router#       </t>
-  </si>
-  <si>
-    <t>niu, OK!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#test environment vm set mod 2 power-supply all level +5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#test environment vm get module 3 power-supply all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ixia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.74.88.211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router#test environment vm set mod 3 power-supply all level +5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续去跑 vmarg high.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2B_TRA_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA IP:10.74.88.183</t>
+    <t>test environment vm get module 3 power-supply all</t>
+  </si>
+  <si>
+    <t>P3A-PRI-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP1: Running XPOINTINTR Test {XPOINT2} -&gt; 1</t>
+  </si>
+  <si>
+    <t>At CST 2015 Apr 11 12:21:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> error flushing "file4": permission denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while executing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flush $fileID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (object "::repFile" method "::File::write" body line 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    invoked from within</t>
+  </si>
+  <si>
+    <t>repFile write $msg""</t>
+  </si>
+  <si>
+    <t>if [itcl::is object repFile] {_x000D_
+                repFile write $msg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (procedure "log" line 5)</t>
+  </si>
+  <si>
+    <t>log [string trimright $expect_out(buffer)]</t>
+  </si>
+  <si>
+    <t>expect {_x000D_
+                        -i $conID_x000D_
+                        -re .+\n" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                set buf $buf$expect_out(buffer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                lo..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (object "::UUT" method "::Platform::c6kEDVTTestDiag" body line 33)</t>
+  </si>
+  <si>
+    <t>c6kEDVTTestDiag $cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ("cat6k" arm line 3)</t>
+  </si>
+  <si>
+    <t>switch $platform {_x000D_
+                mds" -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "dc3" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if {$type=="diag"} {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                dc3EDVTTestDiag $cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        } elseif {$type=="ios"} {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                dc3EDVTTestIOS  $cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (object "::UUT" method "::Platform::EDVTTest" body line 2)</t>
+  </si>
+  <si>
+    <t>UUT EDVTTest $::diagCmdList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (procedure "startTest" line 170)</t>
+  </si>
+  <si>
+    <t>startTest [lrange $argv 1 end]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[yojiang@crdc-eng-edvt P3A_EDVT]$  </t>
+  </si>
+  <si>
+    <t>egig_c_internal_mem_clear</t>
+  </si>
+  <si>
+    <t>SP1: Running RWFIBINLINEDIAG Test {RW1} -&gt; 1</t>
+  </si>
+  <si>
+    <t>At CST 2015 Apr 11 12:19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[yojiang@crdc-eng-edvt P3A_EDVT]$   </t>
+  </si>
+  <si>
+    <t>P1B-TRA-08 / Ten1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdc-eng-edvt:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phonomena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1B-TRA-01</t>
+  </si>
+  <si>
+    <r>
+      <t>现象和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>P1B-TRA-10</t>
+    </r>
+  </si>
+  <si>
+    <t>P1B-TRA-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1B-TRA-09</t>
+  </si>
+  <si>
+    <r>
+      <t>根本无法进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rommon; status led red</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEWIRE DBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1B-TRA-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常起动了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5dB Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot 后，无法启动；又回到了rommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IXIA IP:10.74.88.184</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/darts</t>
-  </si>
-  <si>
-    <t>/auto/crdc_ebbu_edvt/yojiang/logs/yojiang</t>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>darts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/Transformer/Pre_EDVT/Primus/P3A_EDVT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3A_EDVT</t>
-  </si>
-  <si>
-    <t>Init 1  - Board_type : TRANSFORMER[32]</t>
-  </si>
-  <si>
-    <t>P2B-TRA-02 FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2B-PRI-09 FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Callisto FPGA Version:    [0x00000045]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boot tftp://10.74.88.113/yojiang/xformer_0303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/callisto_rev47_15031312_upg.rpd</t>
-  </si>
-  <si>
-    <t>Router#sh diagnostic result switch all</t>
-  </si>
-  <si>
-    <t>SP1&gt;1% show fpga version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP1&gt;1%sysr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qqqqqqqqqqqqqqqqqqqqqqqqqqqq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2B-PRI-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA IP:10.74.88.184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2B_PRI_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2B_PRI_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router(config)#no environment-monitor shutdown temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd /auto/crdc_ebbu_edvt/yojiang/Cat6k/darts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>darts4.0&gt; dscp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ./darts_rev4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>darts4.0&gt; dscp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auto/crdc_ebbu_edvt/yojiang/Cat6k/darts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root@10.74.88.113:/tftpboot/jiagu/sup6t/0409_s6tbund_intr82780</t>
-  </si>
-  <si>
-    <t>sup6t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1B-PRI-12 / Ten1/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA:10.74.88.184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1B-TRA-10 / Ten1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.74.88.230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nappar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slot6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cetus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sup2T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6506-Nappar-port1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA port1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6506-Nappar-Port32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA port2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cetus-Nappar-port1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cetus-Nappar-port32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IXIA IP:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power-Console</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.74.88.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VM is:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crdc-eng-edvt:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>坏了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起动有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdc-eng-edvt:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Te3/5         43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/6         43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/7         43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/8         43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/9         43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/10        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/11        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/12        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/13        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/14        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/15        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/16        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/17        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/18        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/19        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/20        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/5         43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/6         43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/7         43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/8         43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/9         43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/10        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/11        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/12        43533426158036   12094858311             0             0</t>
+  </si>
+  <si>
+    <t>Te3/13        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/14        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/15        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/16        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/17        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/18        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/19        43533429490034   12094859272             0             0</t>
+  </si>
+  <si>
+    <t>Te3/20        43533429490034   12094859272             0             0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2900,8 +3580,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2941,6 +3635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,7 +4089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3696,6 +4396,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3743,27 +4487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4019,8 +4742,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>338353</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446027</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>75912</xdr:rowOff>
     </xdr:to>
@@ -4129,6 +4852,168 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="1543050"/>
+          <a:ext cx="5123810" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685048</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>84622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="10829925"/>
+          <a:ext cx="6019048" cy="8828572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227759</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9258300"/>
+          <a:ext cx="6733334" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237049</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>171101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="15630525"/>
+          <a:ext cx="8609524" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4460,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F50" sqref="F49:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4530,13 +5415,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="169">
         <v>2006</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="171" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -4544,41 +5429,41 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="147"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="151"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="147"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="147"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="147"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="148"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="152"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
@@ -4604,24 +5489,24 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="159" t="s">
-        <v>772</v>
+      <c r="B13" s="144" t="s">
+        <v>769</v>
       </c>
       <c r="C13" s="94">
         <v>2014</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E13" s="94">
         <v>2004</v>
       </c>
       <c r="F13" s="94" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="144" t="s">
         <v>327</v>
       </c>
       <c r="C14" s="94">
@@ -4638,8 +5523,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="159" t="s">
-        <v>771</v>
+      <c r="B15" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C15" s="94">
         <v>2011</v>
@@ -4653,48 +5538,48 @@
       <c r="F15" s="94" t="s">
         <v>395</v>
       </c>
-      <c r="G15" s="160" t="s">
-        <v>663</v>
+      <c r="G15" s="145" t="s">
+        <v>662</v>
       </c>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="159" t="s">
-        <v>655</v>
+      <c r="B16" s="144" t="s">
+        <v>654</v>
       </c>
       <c r="C16" s="94">
         <v>2012</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E16" s="94">
         <v>2009</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="159" t="s">
-        <v>748</v>
+      <c r="B17" s="144" t="s">
+        <v>746</v>
       </c>
       <c r="C17" s="94">
         <v>2013</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E17" s="94">
         <v>2005</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H18" s="95" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -4702,7 +5587,7 @@
         <v>1.2</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>481</v>
@@ -4815,10 +5700,10 @@
       <c r="D29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="142" t="s">
+      <c r="G29" s="162" t="s">
         <v>524</v>
       </c>
-      <c r="H29" s="143"/>
+      <c r="H29" s="163"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
@@ -4842,13 +5727,13 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="149">
+      <c r="C32" s="169">
         <v>2032</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="171" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -4857,25 +5742,25 @@
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="147"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="151"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B34" s="147"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="151"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="171"/>
       <c r="E34" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="148"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="152"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="172"/>
       <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
@@ -5071,10 +5956,10 @@
       <c r="B49" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="C49" s="153" t="s">
+      <c r="C49" s="173" t="s">
         <v>416</v>
       </c>
-      <c r="D49" s="154"/>
+      <c r="D49" s="174"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -5116,7 +6001,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B55" s="144" t="s">
+      <c r="B55" s="164" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="8">
@@ -5130,7 +6015,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B56" s="145"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="8" t="s">
         <v>326</v>
       </c>
@@ -5142,7 +6027,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B57" s="145"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="8">
         <v>2037</v>
       </c>
@@ -5154,7 +6039,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="146"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="16">
         <v>2038</v>
       </c>
@@ -5211,6 +6096,18 @@
       <c r="L61" s="77"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B62" s="94" t="s">
+        <v>833</v>
+      </c>
+      <c r="C62" s="144">
+        <v>2047</v>
+      </c>
+      <c r="D62" s="142">
+        <v>2038</v>
+      </c>
+      <c r="E62" s="142" t="s">
+        <v>834</v>
+      </c>
       <c r="H62" s="77"/>
       <c r="I62" s="77"/>
       <c r="J62" s="77"/>
@@ -5258,12 +6155,9 @@
       <c r="D67" s="9">
         <v>33</v>
       </c>
-      <c r="F67">
-        <v>49</v>
-      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="144" t="s">
+      <c r="B68" s="164" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="21">
@@ -5275,12 +6169,12 @@
       <c r="E68" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F68" t="s">
-        <v>515</v>
+      <c r="F68">
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="145"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="8">
         <v>2050</v>
       </c>
@@ -5291,11 +6185,11 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="145"/>
+      <c r="B70" s="165"/>
       <c r="C70" s="8">
         <v>2051</v>
       </c>
@@ -5306,11 +6200,11 @@
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="146"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="16">
         <v>2052</v>
       </c>
@@ -5319,6 +6213,9 @@
       </c>
       <c r="E71" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="F71" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5424,7 +6321,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="147" t="s">
+      <c r="B82" s="167" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="8">
@@ -5441,7 +6338,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="147"/>
+      <c r="B83" s="167"/>
       <c r="C83" s="8">
         <v>2004</v>
       </c>
@@ -5456,7 +6353,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="147"/>
+      <c r="B84" s="167"/>
       <c r="C84" s="8">
         <v>2005</v>
       </c>
@@ -5471,7 +6368,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="148"/>
+      <c r="B85" s="168"/>
       <c r="C85" s="16">
         <v>2006</v>
       </c>
@@ -5507,7 +6404,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B88" s="99" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C88" s="24">
         <v>2014</v>
@@ -5613,7 +6510,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I96" s="40" t="s">
         <v>338</v>
@@ -5621,7 +6518,7 @@
     </row>
     <row r="97" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I97" s="42" t="s">
         <v>339</v>
@@ -5629,120 +6526,120 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="78" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C100" s="31"/>
       <c r="E100" s="78" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F100" s="31"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="79" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="79" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C102" s="33"/>
       <c r="E102" s="79" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F102" s="33"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="80" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>477</v>
       </c>
       <c r="E103" s="80" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="109" t="s">
-        <v>803</v>
-      </c>
-      <c r="C105" s="163" t="s">
-        <v>807</v>
+        <v>800</v>
+      </c>
+      <c r="C105" s="148" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" s="79" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="80" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B110" s="78" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E110" s="78" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="165">
+      <c r="C111" s="150">
         <v>2043</v>
       </c>
       <c r="E111" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="165">
+      <c r="F111" s="150">
         <v>2026</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="C112" s="164">
+        <v>807</v>
+      </c>
+      <c r="C112" s="149">
         <v>2036</v>
       </c>
       <c r="E112" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="F112" s="164">
+        <v>807</v>
+      </c>
+      <c r="F112" s="149">
         <v>2052</v>
       </c>
     </row>
@@ -5766,6 +6663,212 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="C49:D49"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="65">
+        <v>42087</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="65">
+        <v>42087</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="68">
+        <v>42088</v>
+      </c>
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="68">
+        <v>42093</v>
+      </c>
+      <c r="C10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5791,11 +6894,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
       <c r="G1" t="s">
         <v>397</v>
       </c>
@@ -5814,7 +6917,7 @@
         <v>48</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H2" t="s">
         <v>406</v>
@@ -5822,7 +6925,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G3" s="72" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H3" t="s">
         <v>407</v>
@@ -5836,7 +6939,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6074,12 +7177,12 @@
         <v>523</v>
       </c>
       <c r="C32" s="118" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B33" s="116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C33" s="118"/>
     </row>
@@ -6096,8 +7199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6243,10 +7346,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="76" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>565</v>
+        <v>910</v>
       </c>
       <c r="E9" s="89"/>
       <c r="F9" s="77" t="s">
@@ -6258,7 +7361,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="74" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D10" t="s">
         <v>451</v>
@@ -6292,7 +7395,7 @@
         <v>472</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F12" s="77" t="s">
         <v>431</v>
@@ -6309,7 +7412,7 @@
         <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F13" s="77" t="s">
         <v>432</v>
@@ -6323,7 +7426,7 @@
         <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F14" s="77" t="s">
         <v>433</v>
@@ -6365,10 +7468,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="F17" s="77" t="s">
         <v>436</v>
@@ -6379,7 +7482,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D18" s="15" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F18" t="s">
         <v>437</v>
@@ -7663,7 +8766,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7688,7 +8791,7 @@
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
       <c r="E1" s="81" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7696,13 +8799,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" t="s">
         <v>660</v>
       </c>
-      <c r="C2" t="s">
-        <v>661</v>
-      </c>
       <c r="E2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -7710,10 +8813,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -7721,10 +8824,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C4" t="s">
-        <v>754</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -7732,10 +8835,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -7743,16 +8846,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E6" t="s">
         <v>408</v>
       </c>
       <c r="F6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7760,14 +8863,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>784</v>
-      </c>
-      <c r="C7" s="161" t="s">
-        <v>783</v>
+        <v>781</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="32"/>
+      <c r="A8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>829</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7780,8 +8891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8046,10 +9157,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -8057,12 +9168,12 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -8070,135 +9181,135 @@
         <v>1.2</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -8211,159 +9322,159 @@
         <v>1.2</v>
       </c>
       <c r="B82" s="86" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C82" s="86"/>
       <c r="D82" s="86"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C91" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C93" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C100" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C109" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C111" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -8376,7 +9487,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -8384,27 +9495,27 @@
         <v>2.1</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -8412,17 +9523,17 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -8430,39 +9541,39 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -8470,12 +9581,12 @@
         <v>3</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8630,19 +9741,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B155" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C155" s="24">
         <v>2012</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E155" s="24">
         <v>2009</v>
       </c>
       <c r="F155" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -8650,7 +9761,7 @@
         <v>5</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -8664,8 +9775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8679,7 +9790,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -8687,7 +9798,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8696,33 +9807,33 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="156" t="s">
-        <v>674</v>
-      </c>
-      <c r="B50" s="157"/>
+      <c r="A50" s="176" t="s">
+        <v>673</v>
+      </c>
+      <c r="B50" s="177"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B51" s="127" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="126" t="s">
+        <v>669</v>
+      </c>
+      <c r="B52" s="127" t="s">
         <v>670</v>
-      </c>
-      <c r="B52" s="127" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="128" t="s">
+        <v>671</v>
+      </c>
+      <c r="B53" s="129" t="s">
         <v>672</v>
-      </c>
-      <c r="B53" s="129" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -8731,18 +9842,18 @@
         <v>1.3</v>
       </c>
       <c r="B56" s="130" t="s">
+        <v>674</v>
+      </c>
+      <c r="C56" s="136" t="s">
         <v>675</v>
-      </c>
-      <c r="C56" s="136" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="135" t="s">
+        <v>676</v>
+      </c>
+      <c r="C57" s="129" t="s">
         <v>677</v>
-      </c>
-      <c r="C57" s="129" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -8751,13 +9862,13 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="131" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C59" s="132"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" s="131" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C60" s="132"/>
     </row>
@@ -8767,7 +9878,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" s="131" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C62" s="132"/>
     </row>
@@ -8777,40 +9888,40 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" s="131" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C64" s="132"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B65" s="131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C65" s="132"/>
       <c r="L65" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B66" s="131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C66" s="132"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B67" s="131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C67" s="132"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B68" s="131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C68" s="132"/>
     </row>
     <row r="69" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="133" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C69" s="134"/>
     </row>
@@ -8819,12 +9930,12 @@
         <v>1.4</v>
       </c>
       <c r="B72" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -8832,41 +9943,41 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B78" s="130" t="s">
+        <v>694</v>
+      </c>
+      <c r="C78" s="136" t="s">
         <v>695</v>
-      </c>
-      <c r="C78" s="136" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B79" s="135" t="s">
+        <v>687</v>
+      </c>
+      <c r="C79" s="129" t="s">
         <v>688</v>
-      </c>
-      <c r="C79" s="129" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B80" s="137" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C80" s="132"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" s="131" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C81" s="132"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" s="131" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C82" s="132"/>
     </row>
@@ -8876,25 +9987,25 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" s="131" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C84" s="132"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" s="131" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C85" s="132"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" s="138" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C86" s="132"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B87" s="131" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C87" s="132"/>
     </row>
@@ -8904,57 +10015,57 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B89" s="131" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C89" s="132"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B90" s="131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C90" s="132"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B91" s="131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C91" s="132"/>
     </row>
     <row r="92" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B92" s="133" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C92" s="134"/>
     </row>
     <row r="95" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B96" s="156" t="s">
-        <v>700</v>
-      </c>
-      <c r="C96" s="157"/>
+      <c r="B96" s="176" t="s">
+        <v>699</v>
+      </c>
+      <c r="C96" s="177"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B97" s="126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C97" s="127" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B98" s="126" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C98" s="127" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="128" t="s">
+        <v>671</v>
+      </c>
+      <c r="C99" s="129" t="s">
         <v>672</v>
-      </c>
-      <c r="C99" s="129" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
@@ -8962,15 +10073,15 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
+        <v>701</v>
+      </c>
+      <c r="C101" t="s">
         <v>702</v>
-      </c>
-      <c r="C101" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
@@ -8978,21 +10089,21 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C104" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D104" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
+        <v>705</v>
+      </c>
+      <c r="C105" t="s">
         <v>706</v>
-      </c>
-      <c r="C105" t="s">
-        <v>707</v>
       </c>
       <c r="J105" t="s">
         <v>426</v>
@@ -9000,10 +10111,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
@@ -9011,135 +10122,135 @@
         <v>427</v>
       </c>
       <c r="J107" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C109" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J109" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C110" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J110" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C111" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J111" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C112" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J112" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C113" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J113" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C114" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J114" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C115" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J115" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C116" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J116" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C117" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J117" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C118" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J118" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C119" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J119" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C120" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J120" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C121" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J121" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C122" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J122" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C123" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J123" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.15">
@@ -9147,7 +10258,7 @@
         <v>525</v>
       </c>
       <c r="J124" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.15">
@@ -9155,7 +10266,7 @@
         <v>526</v>
       </c>
       <c r="J125" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.15">
@@ -9163,7 +10274,7 @@
         <v>527</v>
       </c>
       <c r="J126" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.15">
@@ -9171,7 +10282,7 @@
         <v>528</v>
       </c>
       <c r="J127" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.15">
@@ -9179,12 +10290,12 @@
         <v>529</v>
       </c>
       <c r="J128" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.15">
       <c r="J129" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.15">
@@ -9192,99 +10303,99 @@
         <v>428</v>
       </c>
       <c r="J130" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J131" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C132" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J132" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C133" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J133" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C134" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J134" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C135" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C136" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C137" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C138" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C139" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C140" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C141" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C142" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C143" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C144" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C145" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C146" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -9314,7 +10425,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C152" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -9322,12 +10433,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B154" s="86" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -9346,15 +10457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
@@ -9416,13 +10527,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="149">
+      <c r="C6" s="169">
         <v>2006</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="171" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -9430,41 +10541,41 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="147"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="147"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="147"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="147"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="151"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="148"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="152"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
@@ -9523,12 +10634,12 @@
         <v>395</v>
       </c>
       <c r="G15" s="125" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C16" s="66">
         <v>2012</v>
@@ -9560,7 +10671,7 @@
         <v>482</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -9660,59 +10771,59 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="94">
         <v>2010</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="94">
         <v>2004</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="94" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C27" s="24">
         <v>2013</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E27" s="24">
         <v>2005</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="107" t="s">
-        <v>769</v>
-      </c>
-      <c r="C28" s="107">
+      <c r="B28" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="C28" s="24">
         <v>2014</v>
       </c>
-      <c r="D28" s="107" t="s">
-        <v>815</v>
-      </c>
-      <c r="E28" s="107">
+      <c r="D28" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="E28" s="24">
         <v>2004</v>
       </c>
-      <c r="F28" s="107" t="s">
-        <v>816</v>
+      <c r="F28" s="24" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -9720,7 +10831,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -9740,7 +10851,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -9773,7 +10884,7 @@
         <v>2.1</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -9798,11 +10909,11 @@
     </row>
     <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B62" s="86" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C62" s="86"/>
-      <c r="D62" s="158" t="s">
-        <v>764</v>
+      <c r="D62" s="143" t="s">
+        <v>761</v>
       </c>
       <c r="E62" s="86"/>
     </row>
@@ -9831,7 +10942,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B69" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -9839,7 +10950,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="86" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -9927,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -9937,42 +11048,42 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B92" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C92" s="78" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C93" s="110" t="s">
+        <v>786</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C94" s="147" t="s">
+        <v>784</v>
+      </c>
+      <c r="D94" s="34" t="s">
         <v>789</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="162" t="s">
-        <v>787</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="162" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="34" t="s">
-        <v>792</v>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C96" s="147" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C97" s="34" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -9982,125 +11093,125 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B104" s="15" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B107" s="78" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C107" s="31"/>
       <c r="E107" s="78" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B108" s="79" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E108" s="79" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F108" s="33" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B109" s="79" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C109" s="33"/>
       <c r="E109" s="79" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F109" s="33"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B110" s="80" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>477</v>
       </c>
       <c r="E110" s="80" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F110" s="34" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B112" s="109" t="s">
-        <v>803</v>
-      </c>
-      <c r="C112" s="163" t="s">
-        <v>807</v>
+        <v>800</v>
+      </c>
+      <c r="C112" s="148" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="79" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="80" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B117" s="78" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E117" s="78" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B118" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="165">
+      <c r="C118" s="150">
         <v>2043</v>
       </c>
       <c r="E118" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="165">
+      <c r="F118" s="150">
         <v>2026</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="C119" s="164">
+        <v>807</v>
+      </c>
+      <c r="C119" s="149">
         <v>2036</v>
       </c>
       <c r="E119" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="F119" s="164">
+        <v>807</v>
+      </c>
+      <c r="F119" s="149">
         <v>2052</v>
       </c>
       <c r="G119" s="10" t="s">
@@ -10114,11 +11225,11 @@
       <c r="F120" s="34"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B122" s="166" t="s">
-        <v>813</v>
+      <c r="B122" s="151" t="s">
+        <v>810</v>
       </c>
       <c r="C122" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.15">
@@ -10140,112 +11251,666 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>343</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>365</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>816</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>364</v>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>817</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>818</v>
+      </c>
+      <c r="C7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2.1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B7" s="65">
-        <v>42087</v>
-      </c>
-      <c r="C7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B47" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="78" t="s">
+        <v>799</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="E51" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="86" t="s">
+        <v>826</v>
+      </c>
+      <c r="E52" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="F52" s="33"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="86" t="s">
+        <v>826</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="80" t="s">
+        <v>794</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="E54" s="80" t="s">
+        <v>797</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="109" t="s">
+        <v>800</v>
+      </c>
+      <c r="C56" s="148" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="79" t="s">
+        <v>801</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="78" t="s">
+        <v>799</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="150">
+        <v>2043</v>
+      </c>
+      <c r="E62" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="150">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" s="149">
+        <v>2036</v>
+      </c>
+      <c r="E63" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="149">
+        <v>2052</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64" s="80"/>
+      <c r="C64" s="34"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="151" t="s">
+        <v>810</v>
+      </c>
+      <c r="C66" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>4</v>
       </c>
-      <c r="B8" s="65">
-        <v>42087</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="B69" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>5</v>
       </c>
-      <c r="B9" s="68">
-        <v>42088</v>
-      </c>
-      <c r="C9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="B71" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>6</v>
       </c>
-      <c r="B10" s="68">
-        <v>42093</v>
-      </c>
-      <c r="C10" t="s">
-        <v>453</v>
+      <c r="B73" s="152" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B76" s="66" t="s">
+        <v>837</v>
+      </c>
+      <c r="C76" s="66" t="s">
+        <v>835</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>836</v>
+      </c>
+      <c r="E76" s="66"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>6.1</v>
+      </c>
+      <c r="B77" s="94" t="s">
+        <v>833</v>
+      </c>
+      <c r="C77" s="94">
+        <v>2047</v>
+      </c>
+      <c r="D77" s="92">
+        <v>2038</v>
+      </c>
+      <c r="E77" s="92" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>839</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" s="153" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="153" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="154" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="99" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="114" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B157" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B162" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>9.1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -10258,88 +11923,802 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="25.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B1" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86" t="s">
+        <v>913</v>
+      </c>
+      <c r="E1" s="86"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>912</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>944</v>
+      </c>
+      <c r="D3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>945</v>
+      </c>
+      <c r="D4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>944</v>
+      </c>
+      <c r="D5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>944</v>
+      </c>
+      <c r="D6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>946</v>
+      </c>
+      <c r="D7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>915</v>
+      </c>
+      <c r="D8" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>916</v>
+      </c>
+      <c r="D9" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>917</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>918</v>
+      </c>
+      <c r="D11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D12" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>920</v>
+      </c>
+      <c r="D13" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>919</v>
+      </c>
+      <c r="D14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C15" s="155" t="s">
+        <v>921</v>
+      </c>
+      <c r="D15" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>922</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>923</v>
+      </c>
+      <c r="D17" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>919</v>
+      </c>
+      <c r="D18" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>924</v>
+      </c>
+      <c r="D19" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>919</v>
+      </c>
+      <c r="D20" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C21" s="155" t="s">
+        <v>925</v>
+      </c>
+      <c r="D21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>926</v>
+      </c>
+      <c r="D22" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>927</v>
+      </c>
+      <c r="D23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>928</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>919</v>
+      </c>
+      <c r="D25" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>929</v>
+      </c>
+      <c r="D26" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>930</v>
+      </c>
+      <c r="D27" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>919</v>
+      </c>
+      <c r="D28" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="C29" s="155" t="s">
+        <v>931</v>
+      </c>
+      <c r="D29" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>932</v>
+      </c>
+      <c r="D30" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>933</v>
+      </c>
+      <c r="D31" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>934</v>
+      </c>
+      <c r="D32" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>935</v>
+      </c>
+      <c r="D33" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>936</v>
+      </c>
+      <c r="D34" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>937</v>
+      </c>
+      <c r="D35" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D36" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>939</v>
+      </c>
+      <c r="D37" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>919</v>
+      </c>
+      <c r="D38" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="C43" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="38" t="s">
+        <v>950</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="C46" s="24">
+        <v>24057450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" s="109" t="s">
+        <v>787</v>
+      </c>
+      <c r="C48" s="148" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="156" t="s">
+        <v>489</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="157" t="s">
+        <v>784</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="158" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="32" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B70" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="159" t="s">
+        <v>957</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="159" t="s">
+        <v>955</v>
+      </c>
+      <c r="C72" s="160" t="s">
+        <v>956</v>
+      </c>
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="159" t="s">
+        <v>958</v>
+      </c>
+      <c r="C73" s="160" t="s">
+        <v>959</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="159" t="s">
+        <v>961</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>4</v>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H79" s="161" t="s">
+        <v>327</v>
+      </c>
+      <c r="I79" s="94">
+        <v>2010</v>
+      </c>
+      <c r="J79" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="94">
+        <v>2004</v>
+      </c>
+      <c r="L79" s="94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H80" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="H81" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="38" t="s">
+        <v>950</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="C83" s="24">
+        <v>24057450</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="F85" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="C86" s="24">
+        <v>2013</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="24">
+        <v>2005</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="C87" s="24">
+        <v>2014</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="24">
+        <v>2004</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>3.1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>